--- a/app/data/pools/oasis.xlsx
+++ b/app/data/pools/oasis.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\discovery\app\data\pools\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90833E30-C559-4E2D-9595-E55C1A1E7F80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OASIS Contractors" sheetId="1" r:id="rId1"/>
@@ -17,8 +23,13 @@
     <sheet name="POOL (6)" sheetId="8" r:id="rId8"/>
     <sheet name="VendorList" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -27,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4107" uniqueCount="930">
   <si>
     <t>OASIS Contractor Name and Address</t>
   </si>
@@ -2207,12 +2218,6 @@
     <t>GS00Q14OADU140</t>
   </si>
   <si>
-    <t>GS00Q14OADU128</t>
-  </si>
-  <si>
-    <t>GS00Q14OADU142</t>
-  </si>
-  <si>
     <t>GS00Q14OADU202</t>
   </si>
   <si>
@@ -2808,17 +2813,32 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>test vendor 1</t>
+  </si>
+  <si>
+    <t>GS00Q1400000000</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>484-687-1111</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="000000000"/>
     <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2932,6 +2952,13 @@
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -3269,11 +3296,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3600,9 +3628,13 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3679,6 +3711,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3726,7 +3761,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3759,9 +3794,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3794,6 +3846,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3969,7 +4038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -3980,15 +4049,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="41.59765625" customWidth="1"/>
-    <col min="2" max="3" width="25.69921875" customWidth="1"/>
-    <col min="4" max="10" width="3.59765625" customWidth="1"/>
-    <col min="11" max="11" width="7.59765625" customWidth="1"/>
-    <col min="12" max="12" width="5.59765625" customWidth="1"/>
-    <col min="13" max="26" width="8.59765625" customWidth="1"/>
-    <col min="27" max="1025" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="41.625" customWidth="1"/>
+    <col min="2" max="3" width="25.75" customWidth="1"/>
+    <col min="4" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="13" max="26" width="8.625" customWidth="1"/>
+    <col min="27" max="1025" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="50.25" customHeight="1">
@@ -10275,28 +10344,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:P910"/>
+  <dimension ref="A1:P909"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="40.69921875" customWidth="1"/>
+    <col min="1" max="1" width="40.75" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="70" customWidth="1"/>
-    <col min="3" max="3" width="7.59765625" customWidth="1"/>
-    <col min="4" max="4" width="25.69921875" customWidth="1"/>
-    <col min="5" max="6" width="25.69921875" style="70" customWidth="1"/>
-    <col min="7" max="7" width="25.69921875" customWidth="1"/>
-    <col min="8" max="24" width="8.59765625" customWidth="1"/>
-    <col min="25" max="1031" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="6" width="25.75" style="70" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="24" width="8.625" customWidth="1"/>
+    <col min="25" max="1031" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="42" customHeight="1">
@@ -10328,22 +10397,22 @@
         <v>678</v>
       </c>
       <c r="J1" s="120" t="s">
+        <v>918</v>
+      </c>
+      <c r="K1" s="120" t="s">
+        <v>919</v>
+      </c>
+      <c r="L1" s="120" t="s">
         <v>920</v>
       </c>
-      <c r="K1" s="120" t="s">
+      <c r="M1" s="120" t="s">
         <v>921</v>
       </c>
-      <c r="L1" s="120" t="s">
+      <c r="N1" s="120" t="s">
         <v>922</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="O1" s="120" t="s">
         <v>923</v>
-      </c>
-      <c r="N1" s="120" t="s">
-        <v>924</v>
-      </c>
-      <c r="O1" s="120" t="s">
-        <v>925</v>
       </c>
       <c r="P1" s="74" t="s">
         <v>679</v>
@@ -10379,22 +10448,22 @@
         <v>21</v>
       </c>
       <c r="J2" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K2" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L2" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M2" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N2" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O2" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
@@ -10427,22 +10496,22 @@
         <v>30</v>
       </c>
       <c r="J3" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K3" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L3" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M3" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N3" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O3" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
@@ -10475,22 +10544,22 @@
         <v>39</v>
       </c>
       <c r="J4" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K4" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L4" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M4" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N4" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O4" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
@@ -10523,22 +10592,22 @@
         <v>49</v>
       </c>
       <c r="J5" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K5" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L5" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M5" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N5" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O5" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
@@ -10571,22 +10640,22 @@
         <v>66</v>
       </c>
       <c r="J6" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K6" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L6" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M6" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N6" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O6" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
@@ -10619,22 +10688,22 @@
         <v>75</v>
       </c>
       <c r="J7" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K7" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L7" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M7" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N7" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O7" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
@@ -10667,22 +10736,22 @@
         <v>84</v>
       </c>
       <c r="J8" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K8" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L8" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M8" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N8" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O8" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
@@ -10715,22 +10784,22 @@
         <v>93</v>
       </c>
       <c r="J9" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K9" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L9" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M9" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N9" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O9" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
@@ -10763,22 +10832,22 @@
         <v>101</v>
       </c>
       <c r="J10" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K10" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L10" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M10" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N10" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O10" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
@@ -10811,22 +10880,22 @@
         <v>109</v>
       </c>
       <c r="J11" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K11" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L11" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M11" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N11" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O11" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1">
@@ -10859,22 +10928,22 @@
         <v>123</v>
       </c>
       <c r="J12" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K12" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L12" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M12" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N12" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O12" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1">
@@ -10907,22 +10976,22 @@
         <v>132</v>
       </c>
       <c r="J13" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K13" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L13" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M13" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N13" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O13" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
@@ -10955,22 +11024,22 @@
         <v>150</v>
       </c>
       <c r="J14" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K14" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L14" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M14" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N14" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O14" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
@@ -11003,22 +11072,22 @@
         <v>159</v>
       </c>
       <c r="J15" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K15" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L15" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M15" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N15" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O15" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
@@ -11051,22 +11120,22 @@
         <v>168</v>
       </c>
       <c r="J16" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K16" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L16" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M16" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N16" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O16" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
@@ -11099,22 +11168,22 @@
         <v>186</v>
       </c>
       <c r="J17" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K17" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L17" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M17" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N17" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O17" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
@@ -11147,22 +11216,22 @@
         <v>202</v>
       </c>
       <c r="J18" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K18" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L18" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M18" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N18" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O18" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
@@ -11195,22 +11264,22 @@
         <v>211</v>
       </c>
       <c r="J19" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K19" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L19" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M19" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N19" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O19" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1">
@@ -11243,22 +11312,22 @@
         <v>194</v>
       </c>
       <c r="J20" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K20" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L20" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M20" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N20" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O20" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1">
@@ -11291,22 +11360,22 @@
         <v>235</v>
       </c>
       <c r="J21" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K21" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L21" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M21" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N21" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O21" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
@@ -11339,22 +11408,22 @@
         <v>271</v>
       </c>
       <c r="J22" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K22" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L22" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M22" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N22" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O22" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
@@ -11387,22 +11456,22 @@
         <v>279</v>
       </c>
       <c r="J23" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K23" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L23" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M23" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N23" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O23" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
@@ -11435,22 +11504,22 @@
         <v>288</v>
       </c>
       <c r="J24" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K24" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L24" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M24" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N24" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O24" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
@@ -11483,22 +11552,22 @@
         <v>305</v>
       </c>
       <c r="J25" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K25" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L25" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M25" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N25" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O25" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
@@ -11531,22 +11600,22 @@
         <v>321</v>
       </c>
       <c r="J26" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K26" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L26" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M26" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N26" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O26" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1">
@@ -11579,22 +11648,22 @@
         <v>329</v>
       </c>
       <c r="J27" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K27" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L27" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M27" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N27" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O27" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1">
@@ -11627,22 +11696,22 @@
         <v>338</v>
       </c>
       <c r="J28" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K28" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L28" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M28" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N28" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O28" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1">
@@ -11675,22 +11744,22 @@
         <v>347</v>
       </c>
       <c r="J29" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K29" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L29" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M29" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N29" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O29" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1">
@@ -11723,22 +11792,22 @@
         <v>364</v>
       </c>
       <c r="J30" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K30" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L30" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M30" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N30" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O30" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
@@ -11771,22 +11840,22 @@
         <v>410</v>
       </c>
       <c r="J31" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K31" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L31" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M31" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N31" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O31" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
@@ -11819,22 +11888,22 @@
         <v>419</v>
       </c>
       <c r="J32" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K32" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L32" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M32" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N32" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O32" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
@@ -11867,22 +11936,22 @@
         <v>438</v>
       </c>
       <c r="J33" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K33" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L33" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M33" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N33" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O33" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
@@ -11915,22 +11984,22 @@
         <v>448</v>
       </c>
       <c r="J34" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K34" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L34" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M34" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N34" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O34" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1">
@@ -11963,22 +12032,22 @@
         <v>478</v>
       </c>
       <c r="J35" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K35" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L35" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M35" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N35" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O35" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1">
@@ -12011,22 +12080,22 @@
         <v>496</v>
       </c>
       <c r="J36" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K36" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L36" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M36" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N36" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O36" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1">
@@ -12059,22 +12128,22 @@
         <v>504</v>
       </c>
       <c r="J37" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K37" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L37" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M37" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N37" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O37" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1">
@@ -12107,22 +12176,22 @@
         <v>511</v>
       </c>
       <c r="J38" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K38" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L38" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M38" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N38" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O38" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1">
@@ -12155,22 +12224,22 @@
         <v>520</v>
       </c>
       <c r="J39" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K39" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L39" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M39" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N39" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O39" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
@@ -12203,22 +12272,22 @@
         <v>536</v>
       </c>
       <c r="J40" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K40" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L40" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M40" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N40" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O40" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
@@ -12251,22 +12320,22 @@
         <v>544</v>
       </c>
       <c r="J41" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K41" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L41" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M41" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N41" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O41" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
@@ -12299,22 +12368,22 @@
         <v>589</v>
       </c>
       <c r="J42" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K42" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L42" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M42" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N42" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O42" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
@@ -12347,22 +12416,22 @@
         <v>617</v>
       </c>
       <c r="J43" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K43" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L43" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M43" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N43" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O43" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
@@ -12395,46 +12464,45 @@
         <v>627</v>
       </c>
       <c r="J44" s="121" t="s">
+        <v>924</v>
+      </c>
+      <c r="K44" s="121" t="s">
+        <v>924</v>
+      </c>
+      <c r="L44" s="121" t="s">
+        <v>924</v>
+      </c>
+      <c r="M44" s="121" t="s">
+        <v>924</v>
+      </c>
+      <c r="N44" s="121" t="s">
+        <v>924</v>
+      </c>
+      <c r="O44" s="121" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A45" s="90" t="s">
+        <v>925</v>
+      </c>
+      <c r="B45" s="75" t="s">
         <v>926</v>
       </c>
-      <c r="K44" s="121" t="s">
-        <v>926</v>
-      </c>
-      <c r="L44" s="121" t="s">
-        <v>926</v>
-      </c>
-      <c r="M44" s="121" t="s">
-        <v>926</v>
-      </c>
-      <c r="N44" s="121" t="s">
-        <v>926</v>
-      </c>
-      <c r="O44" s="121" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A45" s="90" t="str">
-        <f>'OASIS Contractors'!A221</f>
-        <v>Vencore Services and Solutions, Inc.</v>
-      </c>
-      <c r="B45" s="75" t="s">
-        <v>726</v>
-      </c>
       <c r="C45" s="76">
-        <v>827599759</v>
+        <v>1111</v>
       </c>
       <c r="D45" s="77" t="s">
-        <v>629</v>
+        <v>927</v>
       </c>
       <c r="E45" s="78" t="s">
-        <v>633</v>
-      </c>
-      <c r="F45" s="78" t="s">
-        <v>636</v>
+        <v>928</v>
+      </c>
+      <c r="F45" s="124" t="s">
+        <v>929</v>
       </c>
       <c r="G45" s="77" t="s">
-        <v>630</v>
+        <v>927</v>
       </c>
       <c r="H45" s="70" t="s">
         <v>634</v>
@@ -12443,72 +12511,25 @@
         <v>636</v>
       </c>
       <c r="J45" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K45" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L45" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M45" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N45" s="121" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O45" s="121" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A46" s="79" t="str">
-        <f>'OASIS Contractors'!A230</f>
-        <v>Wyle Laboratories, Inc.</v>
-      </c>
-      <c r="B46" s="75" t="s">
-        <v>727</v>
-      </c>
-      <c r="C46" s="76">
-        <v>41024415</v>
-      </c>
-      <c r="D46" s="80" t="s">
-        <v>659</v>
-      </c>
-      <c r="E46" s="78" t="s">
-        <v>663</v>
-      </c>
-      <c r="F46" s="78" t="s">
-        <v>666</v>
-      </c>
-      <c r="G46" s="81" t="s">
-        <v>660</v>
-      </c>
-      <c r="H46" s="70" t="s">
-        <v>664</v>
-      </c>
-      <c r="I46" s="70" t="s">
-        <v>666</v>
-      </c>
-      <c r="J46" s="121" t="s">
-        <v>926</v>
-      </c>
-      <c r="K46" s="121" t="s">
-        <v>926</v>
-      </c>
-      <c r="L46" s="121" t="s">
-        <v>926</v>
-      </c>
-      <c r="M46" s="121" t="s">
-        <v>926</v>
-      </c>
-      <c r="N46" s="121" t="s">
-        <v>926</v>
-      </c>
-      <c r="O46" s="121" t="s">
-        <v>926</v>
-      </c>
-    </row>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="13.5" customHeight="1"/>
     <row r="47" spans="1:15" ht="13.5" customHeight="1"/>
     <row r="48" spans="1:15" ht="13.5" customHeight="1"/>
     <row r="49" ht="13.5" customHeight="1"/>
@@ -13372,15 +13393,17 @@
     <row r="907" ht="13.5" customHeight="1"/>
     <row r="908" ht="13.5" customHeight="1"/>
     <row r="909" ht="13.5" customHeight="1"/>
-    <row r="910" ht="13.5" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F45" r:id="rId1" xr:uid="{929C8922-F186-406B-8569-32D1F74BD2A3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -13392,16 +13415,16 @@
       <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="40.69921875" customWidth="1"/>
+    <col min="1" max="1" width="40.75" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="70" customWidth="1"/>
-    <col min="3" max="3" width="7.69921875" customWidth="1"/>
-    <col min="4" max="4" width="25.69921875" customWidth="1"/>
-    <col min="5" max="6" width="25.69921875" style="70" customWidth="1"/>
-    <col min="7" max="7" width="25.69921875" customWidth="1"/>
-    <col min="8" max="32" width="8.59765625" customWidth="1"/>
-    <col min="33" max="1031" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="6" width="25.75" style="70" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="32" width="8.625" customWidth="1"/>
+    <col min="33" max="1031" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.75" customHeight="1">
@@ -13433,22 +13456,22 @@
         <v>678</v>
       </c>
       <c r="J1" s="120" t="s">
+        <v>918</v>
+      </c>
+      <c r="K1" s="120" t="s">
+        <v>919</v>
+      </c>
+      <c r="L1" s="120" t="s">
         <v>920</v>
       </c>
-      <c r="K1" s="120" t="s">
+      <c r="M1" s="120" t="s">
         <v>921</v>
       </c>
-      <c r="L1" s="120" t="s">
+      <c r="N1" s="120" t="s">
         <v>922</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="O1" s="120" t="s">
         <v>923</v>
-      </c>
-      <c r="N1" s="120" t="s">
-        <v>924</v>
-      </c>
-      <c r="O1" s="120" t="s">
-        <v>925</v>
       </c>
       <c r="P1" s="74" t="s">
         <v>679</v>
@@ -13460,7 +13483,7 @@
         <v>Accenture Federal Services, LLC</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C2" s="76">
         <v>139727148</v>
@@ -13484,22 +13507,22 @@
         <v>21</v>
       </c>
       <c r="J2" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K2" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L2" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M2" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N2" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O2" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P2" s="92"/>
     </row>
@@ -13509,7 +13532,7 @@
         <v>Battelle Memorial Institute</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C3" s="76">
         <v>7901598</v>
@@ -13533,22 +13556,22 @@
         <v>84</v>
       </c>
       <c r="J3" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K3" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L3" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M3" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N3" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O3" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P3" s="92"/>
     </row>
@@ -13558,7 +13581,7 @@
         <v>Booz Allen Hamilton, Inc.</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C4" s="76">
         <v>6928857</v>
@@ -13582,22 +13605,22 @@
         <v>101</v>
       </c>
       <c r="J4" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K4" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L4" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M4" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N4" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O4" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P4" s="92"/>
     </row>
@@ -13607,7 +13630,7 @@
         <v>Deloitte Consulting, LLP</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C5" s="76">
         <v>19121586</v>
@@ -13631,22 +13654,22 @@
         <v>186</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K5" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L5" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M5" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N5" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O5" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P5" s="92"/>
     </row>
@@ -13656,7 +13679,7 @@
         <v xml:space="preserve">Engility Corporation </v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C6" s="76">
         <v>69341972</v>
@@ -13680,22 +13703,22 @@
         <v>194</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K6" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L6" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M6" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N6" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O6" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P6" s="92"/>
     </row>
@@ -13705,7 +13728,7 @@
         <v>ECS Federal Inc.</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C7" s="76">
         <v>806026852</v>
@@ -13729,22 +13752,22 @@
         <v>211</v>
       </c>
       <c r="J7" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K7" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L7" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M7" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N7" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O7" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P7" s="92"/>
     </row>
@@ -13754,7 +13777,7 @@
         <v>General Dynamics Information Technology, Inc.</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C8" s="76">
         <v>67641597</v>
@@ -13778,22 +13801,22 @@
         <v>235</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K8" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L8" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M8" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N8" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O8" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P8" s="92"/>
     </row>
@@ -13803,7 +13826,7 @@
         <v>Grant Thornton, LLP</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C9" s="76">
         <v>128159105</v>
@@ -13827,22 +13850,22 @@
         <v>254</v>
       </c>
       <c r="J9" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K9" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L9" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M9" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O9" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P9" s="92"/>
     </row>
@@ -13852,7 +13875,7 @@
         <v>ICF Incorporated, LLC</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C10" s="76">
         <v>72648579</v>
@@ -13876,22 +13899,22 @@
         <v>279</v>
       </c>
       <c r="J10" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K10" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L10" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M10" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N10" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O10" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P10" s="92"/>
     </row>
@@ -13901,7 +13924,7 @@
         <v>International Business Machines Corporation dba IBM</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C11" s="76">
         <v>835130485</v>
@@ -13925,22 +13948,22 @@
         <v>288</v>
       </c>
       <c r="J11" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K11" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L11" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M11" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N11" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O11" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P11" s="92"/>
     </row>
@@ -13950,7 +13973,7 @@
         <v>Kearney &amp; Company, P.C.</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C12" s="76">
         <v>186576310</v>
@@ -13974,22 +13997,22 @@
         <v>313</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K12" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L12" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M12" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N12" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O12" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P12" s="92"/>
     </row>
@@ -13999,7 +14022,7 @@
         <v>Leidos, Inc.</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C13" s="76">
         <v>54781240</v>
@@ -14023,22 +14046,22 @@
         <v>329</v>
       </c>
       <c r="J13" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K13" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L13" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M13" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N13" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O13" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P13" s="92"/>
     </row>
@@ -14048,7 +14071,7 @@
         <v>Lockheed Martin Integrated Systems, LLC.</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C14" s="76">
         <v>780820002</v>
@@ -14072,22 +14095,22 @@
         <v>338</v>
       </c>
       <c r="J14" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K14" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L14" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M14" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N14" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O14" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P14" s="92"/>
     </row>
@@ -14097,7 +14120,7 @@
         <v>National Opinion Research Center dba NORC</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C15" s="76">
         <v>69512291</v>
@@ -14121,22 +14144,22 @@
         <v>392</v>
       </c>
       <c r="J15" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K15" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L15" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M15" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N15" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O15" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P15" s="92"/>
     </row>
@@ -14146,7 +14169,7 @@
         <v>Navigant Consulting, Inc.</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C16" s="76">
         <v>22582428</v>
@@ -14170,22 +14193,22 @@
         <v>401</v>
       </c>
       <c r="J16" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K16" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L16" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M16" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N16" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O16" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P16" s="92"/>
     </row>
@@ -14195,7 +14218,7 @@
         <v>Northrop Grumman Systems Corporation</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C17" s="76">
         <v>78502520</v>
@@ -14219,22 +14242,22 @@
         <v>419</v>
       </c>
       <c r="J17" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K17" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L17" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M17" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N17" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O17" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P17" s="92"/>
     </row>
@@ -14244,7 +14267,7 @@
         <v>PricewaterhouseCoopers Public Sector LLP</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C18" s="76">
         <v>79529872</v>
@@ -14268,22 +14291,22 @@
         <v>456</v>
       </c>
       <c r="J18" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K18" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L18" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M18" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N18" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O18" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P18" s="92"/>
     </row>
@@ -14293,7 +14316,7 @@
         <v>Research Triangle Institute dba RTI International</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C19" s="76">
         <v>4868105</v>
@@ -14317,22 +14340,22 @@
         <v>487</v>
       </c>
       <c r="J19" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K19" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L19" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M19" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N19" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O19" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P19" s="92"/>
     </row>
@@ -14342,7 +14365,7 @@
         <v>Science Applications International Corporation dba SAIC</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C20" s="76">
         <v>78883327</v>
@@ -14366,22 +14389,22 @@
         <v>496</v>
       </c>
       <c r="J20" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K20" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L20" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M20" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N20" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O20" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P20" s="92"/>
     </row>
@@ -14391,7 +14414,7 @@
         <v>Serco, Inc.</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C21" s="76">
         <v>928859149</v>
@@ -14415,22 +14438,22 @@
         <v>511</v>
       </c>
       <c r="J21" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K21" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L21" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M21" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N21" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O21" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P21" s="92"/>
     </row>
@@ -14440,7 +14463,7 @@
         <v>Teksouth Corporation</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C22" s="76">
         <v>102091550</v>
@@ -14449,7 +14472,7 @@
         <v>564</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F22" s="59" t="s">
         <v>570</v>
@@ -14464,22 +14487,22 @@
         <v>571</v>
       </c>
       <c r="J22" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K22" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L22" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M22" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N22" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O22" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P22" s="92"/>
     </row>
@@ -14489,7 +14512,7 @@
         <v>TeraThink Corporation</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C23" s="76">
         <v>114921872</v>
@@ -14513,22 +14536,22 @@
         <v>579</v>
       </c>
       <c r="J23" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K23" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L23" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M23" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N23" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O23" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P23" s="92"/>
     </row>
@@ -14538,7 +14561,7 @@
         <v>The MIL Corporation</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C24" s="76">
         <v>161579735</v>
@@ -14562,22 +14585,22 @@
         <v>599</v>
       </c>
       <c r="J24" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K24" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L24" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M24" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N24" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O24" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P24" s="92"/>
     </row>
@@ -14587,7 +14610,7 @@
         <v>Unisys Corporation</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C25" s="76">
         <v>150780674</v>
@@ -14611,22 +14634,22 @@
         <v>617</v>
       </c>
       <c r="J25" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K25" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L25" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M25" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N25" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O25" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P25" s="92"/>
     </row>
@@ -14636,7 +14659,7 @@
         <v>Westat, Inc.</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C26" s="76">
         <v>49508120</v>
@@ -14660,22 +14683,22 @@
         <v>649</v>
       </c>
       <c r="J26" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K26" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L26" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M26" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N26" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O26" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P26" s="92"/>
     </row>
@@ -15610,7 +15633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -15622,17 +15645,17 @@
       <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="40.69921875" customWidth="1"/>
-    <col min="2" max="2" width="16.796875" style="70" customWidth="1"/>
-    <col min="3" max="3" width="8.09765625" customWidth="1"/>
-    <col min="4" max="4" width="25.69921875" customWidth="1"/>
-    <col min="5" max="6" width="25.69921875" style="70" customWidth="1"/>
-    <col min="7" max="7" width="25.69921875" customWidth="1"/>
+    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="70" customWidth="1"/>
+    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="6" width="25.75" style="70" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="33" width="8.59765625" customWidth="1"/>
-    <col min="34" max="1031" width="12.59765625" customWidth="1"/>
+    <col min="9" max="33" width="8.625" customWidth="1"/>
+    <col min="34" max="1031" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1">
@@ -15664,22 +15687,22 @@
         <v>678</v>
       </c>
       <c r="J1" s="120" t="s">
+        <v>918</v>
+      </c>
+      <c r="K1" s="120" t="s">
+        <v>919</v>
+      </c>
+      <c r="L1" s="120" t="s">
         <v>920</v>
       </c>
-      <c r="K1" s="120" t="s">
+      <c r="M1" s="120" t="s">
         <v>921</v>
       </c>
-      <c r="L1" s="120" t="s">
+      <c r="N1" s="120" t="s">
         <v>922</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="O1" s="120" t="s">
         <v>923</v>
-      </c>
-      <c r="N1" s="120" t="s">
-        <v>924</v>
-      </c>
-      <c r="O1" s="120" t="s">
-        <v>925</v>
       </c>
       <c r="P1" s="74" t="s">
         <v>679</v>
@@ -15690,7 +15713,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C2" s="76">
         <v>139727148</v>
@@ -15714,22 +15737,22 @@
         <v>21</v>
       </c>
       <c r="J2" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K2" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L2" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M2" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N2" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O2" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P2" s="92"/>
     </row>
@@ -15738,7 +15761,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C3" s="76">
         <v>963450866</v>
@@ -15762,22 +15785,22 @@
         <v>39</v>
       </c>
       <c r="J3" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K3" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L3" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M3" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N3" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O3" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P3" s="92"/>
     </row>
@@ -15786,7 +15809,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C4" s="76">
         <v>77799799</v>
@@ -15810,22 +15833,22 @@
         <v>57</v>
       </c>
       <c r="J4" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K4" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L4" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M4" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N4" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O4" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P4" s="92"/>
     </row>
@@ -15834,7 +15857,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C5" s="76">
         <v>97967608</v>
@@ -15858,22 +15881,22 @@
         <v>66</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K5" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L5" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M5" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N5" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O5" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P5" s="92"/>
     </row>
@@ -15882,7 +15905,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C6" s="76">
         <v>926451519</v>
@@ -15906,22 +15929,22 @@
         <v>75</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K6" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L6" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M6" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N6" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O6" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P6" s="92"/>
     </row>
@@ -15930,7 +15953,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C7" s="76">
         <v>7901598</v>
@@ -15954,22 +15977,22 @@
         <v>84</v>
       </c>
       <c r="J7" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K7" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L7" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M7" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N7" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O7" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P7" s="92"/>
     </row>
@@ -15978,7 +16001,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C8" s="76">
         <v>175304687</v>
@@ -16002,22 +16025,22 @@
         <v>93</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K8" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L8" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M8" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N8" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O8" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P8" s="92"/>
     </row>
@@ -16026,7 +16049,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C9" s="76">
         <v>6928857</v>
@@ -16050,22 +16073,22 @@
         <v>101</v>
       </c>
       <c r="J9" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K9" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L9" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M9" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O9" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P9" s="92"/>
     </row>
@@ -16074,7 +16097,7 @@
         <v>102</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C10" s="76">
         <v>114896066</v>
@@ -16098,22 +16121,22 @@
         <v>109</v>
       </c>
       <c r="J10" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K10" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L10" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M10" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N10" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O10" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P10" s="92"/>
     </row>
@@ -16122,7 +16145,7 @@
         <v>114</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C11" s="76">
         <v>609570742</v>
@@ -16146,22 +16169,22 @@
         <v>123</v>
       </c>
       <c r="J11" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K11" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L11" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M11" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N11" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O11" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P11" s="92"/>
     </row>
@@ -16170,7 +16193,7 @@
         <v>124</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C12" s="76">
         <v>145969783</v>
@@ -16194,22 +16217,22 @@
         <v>132</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K12" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L12" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M12" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N12" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O12" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P12" s="92"/>
     </row>
@@ -16218,7 +16241,7 @@
         <v>142</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C13" s="76">
         <v>79735371</v>
@@ -16242,22 +16265,22 @@
         <v>150</v>
       </c>
       <c r="J13" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K13" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L13" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M13" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N13" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O13" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P13" s="92"/>
     </row>
@@ -16266,7 +16289,7 @@
         <v>151</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C14" s="76">
         <v>189737810</v>
@@ -16290,22 +16313,22 @@
         <v>159</v>
       </c>
       <c r="J14" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K14" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L14" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M14" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N14" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O14" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P14" s="92"/>
     </row>
@@ -16314,7 +16337,7 @@
         <v>160</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C15" s="76">
         <v>839179272</v>
@@ -16338,22 +16361,22 @@
         <v>168</v>
       </c>
       <c r="J15" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K15" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L15" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M15" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N15" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O15" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P15" s="92"/>
     </row>
@@ -16362,7 +16385,7 @@
         <v>169</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C16" s="76">
         <v>83662916</v>
@@ -16386,22 +16409,22 @@
         <v>177</v>
       </c>
       <c r="J16" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K16" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L16" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M16" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N16" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O16" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P16" s="92"/>
     </row>
@@ -16410,7 +16433,7 @@
         <v>203</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C17" s="76">
         <v>48341838</v>
@@ -16434,22 +16457,22 @@
         <v>211</v>
       </c>
       <c r="J17" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K17" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L17" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M17" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N17" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O17" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P17" s="92"/>
     </row>
@@ -16458,7 +16481,7 @@
         <v>215</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C18" s="76">
         <v>69341972</v>
@@ -16482,22 +16505,22 @@
         <v>194</v>
       </c>
       <c r="J18" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K18" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L18" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M18" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N18" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O18" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P18" s="92"/>
     </row>
@@ -16506,7 +16529,7 @@
         <v>218</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C19" s="76">
         <v>931221258</v>
@@ -16530,22 +16553,22 @@
         <v>225</v>
       </c>
       <c r="J19" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K19" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L19" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M19" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N19" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O19" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P19" s="92"/>
     </row>
@@ -16554,7 +16577,7 @@
         <v>226</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C20" s="76">
         <v>67641597</v>
@@ -16578,22 +16601,22 @@
         <v>235</v>
       </c>
       <c r="J20" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K20" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L20" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M20" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N20" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O20" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P20" s="92"/>
     </row>
@@ -16602,7 +16625,7 @@
         <v>255</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C21" s="76">
         <v>83655498</v>
@@ -16626,22 +16649,22 @@
         <v>264</v>
       </c>
       <c r="J21" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K21" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L21" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M21" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N21" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O21" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P21" s="92"/>
     </row>
@@ -16659,22 +16682,22 @@
       <c r="G22" s="95"/>
       <c r="H22" s="101"/>
       <c r="J22" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K22" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L22" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M22" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N22" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O22" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P22" s="92"/>
     </row>
@@ -16683,7 +16706,7 @@
         <v>272</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C23" s="76">
         <v>72648579</v>
@@ -16707,22 +16730,22 @@
         <v>279</v>
       </c>
       <c r="J23" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K23" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L23" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M23" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N23" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O23" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P23" s="92"/>
     </row>
@@ -16731,7 +16754,7 @@
         <v>280</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C24" s="76">
         <v>835130485</v>
@@ -16755,22 +16778,22 @@
         <v>288</v>
       </c>
       <c r="J24" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K24" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L24" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M24" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N24" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O24" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P24" s="92"/>
     </row>
@@ -16779,7 +16802,7 @@
         <v>298</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C25" s="76">
         <v>7923014</v>
@@ -16803,22 +16826,22 @@
         <v>305</v>
       </c>
       <c r="J25" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K25" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L25" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M25" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N25" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O25" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P25" s="92"/>
     </row>
@@ -16827,7 +16850,7 @@
         <v>314</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C26" s="76">
         <v>41014242</v>
@@ -16851,22 +16874,22 @@
         <v>321</v>
       </c>
       <c r="J26" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K26" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L26" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M26" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N26" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O26" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P26" s="92"/>
     </row>
@@ -16875,7 +16898,7 @@
         <v>322</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C27" s="76">
         <v>54781240</v>
@@ -16899,22 +16922,22 @@
         <v>329</v>
       </c>
       <c r="J27" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K27" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L27" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M27" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N27" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O27" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P27" s="92"/>
     </row>
@@ -16923,7 +16946,7 @@
         <v>330</v>
       </c>
       <c r="B28" s="91" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C28" s="76">
         <v>780820002</v>
@@ -16947,22 +16970,22 @@
         <v>338</v>
       </c>
       <c r="J28" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K28" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L28" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M28" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N28" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O28" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P28" s="92"/>
     </row>
@@ -16971,7 +16994,7 @@
         <v>339</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C29" s="76">
         <v>53385738</v>
@@ -16995,22 +17018,22 @@
         <v>347</v>
       </c>
       <c r="J29" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K29" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L29" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M29" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N29" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O29" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P29" s="92"/>
     </row>
@@ -17019,7 +17042,7 @@
         <v>357</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C30" s="76">
         <v>139627525</v>
@@ -17043,22 +17066,22 @@
         <v>364</v>
       </c>
       <c r="J30" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K30" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L30" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M30" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N30" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O30" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P30" s="92"/>
     </row>
@@ -17067,7 +17090,7 @@
         <v>411</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C31" s="76">
         <v>78502520</v>
@@ -17091,22 +17114,22 @@
         <v>419</v>
       </c>
       <c r="J31" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K31" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L31" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M31" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N31" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O31" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P31" s="92"/>
     </row>
@@ -17115,7 +17138,7 @@
         <v>439</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C32" s="76">
         <v>6908511</v>
@@ -17139,22 +17162,22 @@
         <v>448</v>
       </c>
       <c r="J32" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K32" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L32" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M32" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N32" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O32" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P32" s="92"/>
     </row>
@@ -17163,7 +17186,7 @@
         <v>471</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C33" s="76">
         <v>53387429</v>
@@ -17187,22 +17210,22 @@
         <v>478</v>
       </c>
       <c r="J33" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K33" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L33" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M33" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N33" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O33" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P33" s="92"/>
     </row>
@@ -17211,7 +17234,7 @@
         <v>488</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C34" s="76">
         <v>78883327</v>
@@ -17235,22 +17258,22 @@
         <v>496</v>
       </c>
       <c r="J34" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K34" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L34" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M34" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N34" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O34" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P34" s="92"/>
     </row>
@@ -17259,7 +17282,7 @@
         <v>497</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C35" s="76">
         <v>197138274</v>
@@ -17283,22 +17306,22 @@
         <v>504</v>
       </c>
       <c r="J35" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K35" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L35" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M35" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N35" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O35" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P35" s="92"/>
     </row>
@@ -17307,7 +17330,7 @@
         <v>505</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C36" s="76">
         <v>928859149</v>
@@ -17331,22 +17354,22 @@
         <v>511</v>
       </c>
       <c r="J36" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K36" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L36" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M36" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N36" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O36" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P36" s="92"/>
     </row>
@@ -17355,7 +17378,7 @@
         <v>512</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C37" s="76">
         <v>878901396</v>
@@ -17379,22 +17402,22 @@
         <v>520</v>
       </c>
       <c r="J37" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K37" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L37" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M37" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N37" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O37" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P37" s="92"/>
     </row>
@@ -17403,7 +17426,7 @@
         <v>529</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C38" s="76">
         <v>7936842</v>
@@ -17427,22 +17450,22 @@
         <v>536</v>
       </c>
       <c r="J38" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K38" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L38" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M38" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N38" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O38" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P38" s="92"/>
     </row>
@@ -17451,7 +17474,7 @@
         <v>537</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C39" s="76">
         <v>97779698</v>
@@ -17475,22 +17498,22 @@
         <v>544</v>
       </c>
       <c r="J39" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K39" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L39" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M39" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N39" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O39" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P39" s="92"/>
     </row>
@@ -17499,7 +17522,7 @@
         <v>545</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C40" s="76">
         <v>9232752</v>
@@ -17523,22 +17546,22 @@
         <v>553</v>
       </c>
       <c r="J40" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K40" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L40" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M40" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N40" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O40" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P40" s="92"/>
     </row>
@@ -17547,7 +17570,7 @@
         <v>580</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C41" s="76">
         <v>45224250</v>
@@ -17571,22 +17594,22 @@
         <v>589</v>
       </c>
       <c r="J41" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K41" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L41" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M41" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N41" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O41" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P41" s="92"/>
     </row>
@@ -17595,7 +17618,7 @@
         <v>618</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C42" s="76">
         <v>961530545</v>
@@ -17619,22 +17642,22 @@
         <v>627</v>
       </c>
       <c r="J42" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K42" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L42" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M42" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N42" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O42" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P42" s="92"/>
     </row>
@@ -17643,7 +17666,7 @@
         <v>628</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C43" s="76">
         <v>965519098</v>
@@ -17667,22 +17690,22 @@
         <v>636</v>
       </c>
       <c r="J43" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K43" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L43" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M43" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N43" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O43" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P43" s="92"/>
     </row>
@@ -17691,7 +17714,7 @@
         <v>658</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C44" s="76">
         <v>41024415</v>
@@ -17715,22 +17738,22 @@
         <v>666</v>
       </c>
       <c r="J44" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K44" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L44" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M44" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N44" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O44" s="92" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P44" s="92"/>
     </row>
@@ -18599,7 +18622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -18611,20 +18634,20 @@
       <selection pane="bottomLeft" activeCell="O17" sqref="J17:O43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="41.09765625" customWidth="1"/>
-    <col min="2" max="2" width="19.8984375" style="70" customWidth="1"/>
-    <col min="3" max="3" width="9.69921875" customWidth="1"/>
-    <col min="4" max="4" width="15.296875" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" style="70" customWidth="1"/>
+    <col min="1" max="1" width="41.125" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="70" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="70" customWidth="1"/>
     <col min="6" max="6" width="26" style="70" customWidth="1"/>
-    <col min="7" max="7" width="21.09765625" customWidth="1"/>
-    <col min="8" max="8" width="12.09765625" customWidth="1"/>
-    <col min="9" max="9" width="30.19921875" customWidth="1"/>
-    <col min="10" max="15" width="9.69921875" customWidth="1"/>
-    <col min="16" max="31" width="8.59765625" customWidth="1"/>
-    <col min="32" max="1031" width="12.59765625" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="30.25" customWidth="1"/>
+    <col min="10" max="15" width="9.75" customWidth="1"/>
+    <col min="16" max="31" width="8.625" customWidth="1"/>
+    <col min="32" max="1031" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="41.25" customHeight="1" thickBot="1">
@@ -18656,22 +18679,22 @@
         <v>678</v>
       </c>
       <c r="J1" s="120" t="s">
+        <v>918</v>
+      </c>
+      <c r="K1" s="120" t="s">
+        <v>919</v>
+      </c>
+      <c r="L1" s="120" t="s">
         <v>920</v>
       </c>
-      <c r="K1" s="120" t="s">
+      <c r="M1" s="120" t="s">
         <v>921</v>
       </c>
-      <c r="L1" s="120" t="s">
+      <c r="N1" s="120" t="s">
         <v>922</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="O1" s="120" t="s">
         <v>923</v>
-      </c>
-      <c r="N1" s="120" t="s">
-        <v>924</v>
-      </c>
-      <c r="O1" s="120" t="s">
-        <v>925</v>
       </c>
       <c r="P1" s="74" t="s">
         <v>679</v>
@@ -18683,7 +18706,7 @@
         <v>Alion Science and Technology Corporation</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C2" s="76">
         <v>963450866</v>
@@ -18720,7 +18743,7 @@
         <v>American Systems Corporation</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C3" s="76">
         <v>77799799</v>
@@ -18757,7 +18780,7 @@
         <v>Applied Research Associates, Inc., dba ARA</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C4" s="76">
         <v>97967608</v>
@@ -18794,7 +18817,7 @@
         <v>Ball Aerospace &amp; Technologies Corporation</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C5" s="76">
         <v>926451519</v>
@@ -18831,7 +18854,7 @@
         <v>Battelle Memorial Institute</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C6" s="76">
         <v>7901598</v>
@@ -18868,7 +18891,7 @@
         <v>Boeing Aerospace Operations, Inc.</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C7" s="76">
         <v>175304687</v>
@@ -18905,7 +18928,7 @@
         <v>Booz Allen Hamilton, Inc.</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C8" s="76">
         <v>6928857</v>
@@ -18942,7 +18965,7 @@
         <v>CACI, Inc. Federal</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C9" s="76">
         <v>114896066</v>
@@ -18979,7 +19002,7 @@
         <v>Camber Corporation</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C10" s="76">
         <v>609570742</v>
@@ -19016,7 +19039,7 @@
         <v>CGI Federal, Inc.</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C11" s="76">
         <v>145969783</v>
@@ -19053,7 +19076,7 @@
         <v>CSRA LLC</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C12" s="76">
         <v>79735371</v>
@@ -19090,7 +19113,7 @@
         <v>Concurrent Technologies Corporation</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C13" s="76">
         <v>189737810</v>
@@ -19127,7 +19150,7 @@
         <v>Cubic Global Defense, Inc.</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C14" s="76">
         <v>839179272</v>
@@ -19164,7 +19187,7 @@
         <v>DCS Corporation</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C15" s="76">
         <v>83662916</v>
@@ -19201,7 +19224,7 @@
         <v>Dynetics, Inc.</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C16" s="76">
         <v>75458455</v>
@@ -19238,7 +19261,7 @@
         <v>Engility LLC</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C17" s="76">
         <v>48341838</v>
@@ -19262,22 +19285,22 @@
         <v>194</v>
       </c>
       <c r="J17" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K17" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L17" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M17" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N17" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O17" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P17" s="92"/>
     </row>
@@ -19287,7 +19310,7 @@
         <v xml:space="preserve">Engility Corporation </v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C18" s="76">
         <v>69341972</v>
@@ -19311,22 +19334,22 @@
         <v>194</v>
       </c>
       <c r="J18" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K18" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L18" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M18" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N18" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O18" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P18" s="92"/>
     </row>
@@ -19336,7 +19359,7 @@
         <v>General Dynamics Information Technology, Inc.</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C19" s="76">
         <v>67641597</v>
@@ -19360,22 +19383,22 @@
         <v>235</v>
       </c>
       <c r="J19" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K19" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L19" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M19" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N19" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O19" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P19" s="92"/>
     </row>
@@ -19385,7 +19408,7 @@
         <v>Harris Corporation</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C20" s="76">
         <v>21715206</v>
@@ -19409,22 +19432,22 @@
         <v>271</v>
       </c>
       <c r="J20" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K20" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L20" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M20" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N20" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O20" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P20" s="92"/>
     </row>
@@ -19434,7 +19457,7 @@
         <v>ICF Incorporated, LLC</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C21" s="76">
         <v>72648579</v>
@@ -19458,22 +19481,22 @@
         <v>279</v>
       </c>
       <c r="J21" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K21" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L21" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M21" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N21" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O21" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P21" s="92"/>
     </row>
@@ -19483,7 +19506,7 @@
         <v>International Business Machines Corporation dba IBM</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C22" s="76">
         <v>835130485</v>
@@ -19507,22 +19530,22 @@
         <v>288</v>
       </c>
       <c r="J22" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K22" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L22" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M22" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N22" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O22" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P22" s="92"/>
     </row>
@@ -19532,7 +19555,7 @@
         <v>Jacobs Technology, Inc.</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C23" s="76">
         <v>7923014</v>
@@ -19556,22 +19579,22 @@
         <v>305</v>
       </c>
       <c r="J23" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K23" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L23" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M23" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N23" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O23" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P23" s="92"/>
     </row>
@@ -19581,7 +19604,7 @@
         <v>Kbrwyle Technology Solutions, LLC dba KBRWYLE</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C24" s="76">
         <v>41014242</v>
@@ -19605,22 +19628,22 @@
         <v>321</v>
       </c>
       <c r="J24" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K24" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L24" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M24" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N24" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O24" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P24" s="92"/>
     </row>
@@ -19630,7 +19653,7 @@
         <v>Leidos, Inc.</v>
       </c>
       <c r="B25" s="79" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C25" s="76">
         <v>54781240</v>
@@ -19654,22 +19677,22 @@
         <v>329</v>
       </c>
       <c r="J25" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K25" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L25" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M25" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N25" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O25" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P25" s="92"/>
     </row>
@@ -19679,7 +19702,7 @@
         <v>Lockheed Martin Integrated Systems, LLC.</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C26" s="76">
         <v>780820002</v>
@@ -19703,22 +19726,22 @@
         <v>338</v>
       </c>
       <c r="J26" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K26" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L26" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M26" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N26" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O26" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P26" s="92"/>
     </row>
@@ -19728,7 +19751,7 @@
         <v>ManTech Advanced Systems International, Inc.</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C27" s="76">
         <v>139627525</v>
@@ -19752,22 +19775,22 @@
         <v>364</v>
       </c>
       <c r="J27" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K27" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L27" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M27" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N27" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O27" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P27" s="92"/>
     </row>
@@ -19777,7 +19800,7 @@
         <v>Noblis, Inc.</v>
       </c>
       <c r="B28" s="79" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C28" s="76">
         <v>932902364</v>
@@ -19801,22 +19824,22 @@
         <v>410</v>
       </c>
       <c r="J28" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K28" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L28" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M28" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N28" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O28" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P28" s="92"/>
     </row>
@@ -19826,7 +19849,7 @@
         <v>Northrop Grumman Systems Corporation</v>
       </c>
       <c r="B29" s="79" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C29" s="76">
         <v>78502520</v>
@@ -19850,22 +19873,22 @@
         <v>419</v>
       </c>
       <c r="J29" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K29" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L29" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M29" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N29" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O29" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P29" s="92"/>
     </row>
@@ -19875,7 +19898,7 @@
         <v>Parsons Government Services, Inc</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C30" s="76">
         <v>6908511</v>
@@ -19899,22 +19922,22 @@
         <v>448</v>
       </c>
       <c r="J30" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K30" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L30" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M30" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N30" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O30" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P30" s="92"/>
     </row>
@@ -19924,7 +19947,7 @@
         <v>Raytheon Company</v>
       </c>
       <c r="B31" s="79" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C31" s="76">
         <v>53387429</v>
@@ -19948,22 +19971,22 @@
         <v>478</v>
       </c>
       <c r="J31" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K31" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L31" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M31" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N31" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O31" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P31" s="92"/>
     </row>
@@ -19973,7 +19996,7 @@
         <v>Science Applications International Corporation dba SAIC</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C32" s="76">
         <v>78883327</v>
@@ -19997,22 +20020,22 @@
         <v>496</v>
       </c>
       <c r="J32" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K32" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L32" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M32" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N32" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O32" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P32" s="92"/>
     </row>
@@ -20022,7 +20045,7 @@
         <v>Scientific Research Corporation</v>
       </c>
       <c r="B33" s="79" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C33" s="76">
         <v>197138274</v>
@@ -20046,22 +20069,22 @@
         <v>504</v>
       </c>
       <c r="J33" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K33" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L33" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M33" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N33" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O33" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P33" s="92"/>
     </row>
@@ -20071,7 +20094,7 @@
         <v>Serco, Inc.</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C34" s="76">
         <v>928859149</v>
@@ -20095,22 +20118,22 @@
         <v>511</v>
       </c>
       <c r="J34" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K34" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L34" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M34" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N34" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O34" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P34" s="92"/>
     </row>
@@ -20120,7 +20143,7 @@
         <v>SGT, Inc.</v>
       </c>
       <c r="B35" s="79" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C35" s="76">
         <v>878901396</v>
@@ -20144,22 +20167,22 @@
         <v>520</v>
       </c>
       <c r="J35" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K35" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L35" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M35" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N35" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O35" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P35" s="92"/>
     </row>
@@ -20169,7 +20192,7 @@
         <v>Southwest Research Institute</v>
       </c>
       <c r="B36" s="79" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C36" s="76">
         <v>7936842</v>
@@ -20193,22 +20216,22 @@
         <v>536</v>
       </c>
       <c r="J36" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K36" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L36" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M36" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N36" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O36" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P36" s="92"/>
     </row>
@@ -20218,7 +20241,7 @@
         <v>SRA International, Inc. dba SRA</v>
       </c>
       <c r="B37" s="79" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C37" s="76">
         <v>97779698</v>
@@ -20242,22 +20265,22 @@
         <v>544</v>
       </c>
       <c r="J37" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K37" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L37" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M37" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N37" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O37" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P37" s="92"/>
     </row>
@@ -20267,7 +20290,7 @@
         <v>SRI International</v>
       </c>
       <c r="B38" s="79" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C38" s="76">
         <v>9232752</v>
@@ -20291,22 +20314,22 @@
         <v>553</v>
       </c>
       <c r="J38" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K38" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L38" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M38" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N38" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O38" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P38" s="92"/>
     </row>
@@ -20316,7 +20339,7 @@
         <v>Tetra Tech, Inc.</v>
       </c>
       <c r="B39" s="79" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C39" s="76">
         <v>45224250</v>
@@ -20340,22 +20363,22 @@
         <v>589</v>
       </c>
       <c r="J39" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K39" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L39" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M39" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N39" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O39" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P39" s="92"/>
     </row>
@@ -20365,7 +20388,7 @@
         <v>Unisys Corporation</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C40" s="76">
         <v>150780674</v>
@@ -20389,22 +20412,22 @@
         <v>617</v>
       </c>
       <c r="J40" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K40" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L40" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M40" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N40" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O40" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P40" s="92"/>
     </row>
@@ -20414,7 +20437,7 @@
         <v>URS Federal Services, Inc.</v>
       </c>
       <c r="B41" s="79" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C41" s="76">
         <v>961530545</v>
@@ -20438,22 +20461,22 @@
         <v>627</v>
       </c>
       <c r="J41" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K41" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L41" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M41" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N41" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O41" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P41" s="92"/>
     </row>
@@ -20463,7 +20486,7 @@
         <v>Vencore, Inc.</v>
       </c>
       <c r="B42" s="79" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C42" s="76">
         <v>965519098</v>
@@ -20487,22 +20510,22 @@
         <v>636</v>
       </c>
       <c r="J42" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K42" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L42" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M42" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N42" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O42" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P42" s="92"/>
     </row>
@@ -20512,7 +20535,7 @@
         <v>Wyle Laboratories, Inc.</v>
       </c>
       <c r="B43" s="79" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C43" s="76">
         <v>41024415</v>
@@ -20536,22 +20559,22 @@
         <v>666</v>
       </c>
       <c r="J43" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K43" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L43" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M43" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N43" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O43" s="122" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P43" s="92"/>
     </row>
@@ -21384,7 +21407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -21396,19 +21419,19 @@
       <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="40.69921875" customWidth="1"/>
-    <col min="2" max="2" width="19.8984375" style="70" customWidth="1"/>
-    <col min="3" max="3" width="7.8984375" customWidth="1"/>
-    <col min="4" max="4" width="25.69921875" customWidth="1"/>
-    <col min="5" max="6" width="25.69921875" style="70" customWidth="1"/>
-    <col min="7" max="7" width="25.69921875" customWidth="1"/>
-    <col min="8" max="8" width="12.09765625" customWidth="1"/>
-    <col min="9" max="9" width="28.59765625" customWidth="1"/>
-    <col min="10" max="15" width="10.796875" customWidth="1"/>
-    <col min="16" max="32" width="8.59765625" customWidth="1"/>
-    <col min="33" max="1031" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="70" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="6" width="25.75" style="70" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="28.625" customWidth="1"/>
+    <col min="10" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="32" width="8.625" customWidth="1"/>
+    <col min="33" max="1031" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="45" customHeight="1">
@@ -21440,22 +21463,22 @@
         <v>678</v>
       </c>
       <c r="J1" s="120" t="s">
+        <v>918</v>
+      </c>
+      <c r="K1" s="120" t="s">
+        <v>919</v>
+      </c>
+      <c r="L1" s="120" t="s">
         <v>920</v>
       </c>
-      <c r="K1" s="120" t="s">
+      <c r="M1" s="120" t="s">
         <v>921</v>
       </c>
-      <c r="L1" s="120" t="s">
+      <c r="N1" s="120" t="s">
         <v>922</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="O1" s="120" t="s">
         <v>923</v>
-      </c>
-      <c r="N1" s="120" t="s">
-        <v>924</v>
-      </c>
-      <c r="O1" s="120" t="s">
-        <v>925</v>
       </c>
       <c r="P1" s="74" t="s">
         <v>679</v>
@@ -21467,7 +21490,7 @@
         <v>Applied Research Associates, Inc., dba ARA</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C2" s="76">
         <v>97967608</v>
@@ -21491,22 +21514,22 @@
         <v>66</v>
       </c>
       <c r="J2" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K2" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L2" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M2" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N2" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O2" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P2" s="92"/>
       <c r="Q2" s="112"/>
@@ -21532,7 +21555,7 @@
         <v>Ball Aerospace &amp; Technologies Corporation</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C3" s="76">
         <v>926451519</v>
@@ -21556,22 +21579,22 @@
         <v>75</v>
       </c>
       <c r="J3" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K3" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L3" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M3" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N3" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O3" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P3" s="92"/>
       <c r="Q3" s="112"/>
@@ -21597,7 +21620,7 @@
         <v>Battelle Memorial Institute</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C4" s="76">
         <v>7901598</v>
@@ -21621,22 +21644,22 @@
         <v>84</v>
       </c>
       <c r="J4" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K4" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L4" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M4" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N4" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O4" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P4" s="92"/>
       <c r="Q4" s="112"/>
@@ -21662,7 +21685,7 @@
         <v>Boeing Aerospace Operations, Inc.</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C5" s="76">
         <v>175304687</v>
@@ -21686,22 +21709,22 @@
         <v>93</v>
       </c>
       <c r="J5" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K5" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L5" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M5" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N5" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O5" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P5" s="92"/>
       <c r="Q5" s="112"/>
@@ -21727,7 +21750,7 @@
         <v>Booz Allen Hamilton, Inc.</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C6" s="76">
         <v>6928857</v>
@@ -21751,22 +21774,22 @@
         <v>101</v>
       </c>
       <c r="J6" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K6" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L6" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M6" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N6" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O6" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P6" s="92"/>
       <c r="Q6" s="112"/>
@@ -21792,7 +21815,7 @@
         <v>CACI NSS, Inc.</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C7" s="76">
         <v>136127482</v>
@@ -21816,22 +21839,22 @@
         <v>109</v>
       </c>
       <c r="J7" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K7" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L7" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M7" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N7" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O7" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P7" s="92"/>
       <c r="Q7" s="112"/>
@@ -21857,7 +21880,7 @@
         <v>CGI Federal, Inc.</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C8" s="76">
         <v>145969783</v>
@@ -21881,22 +21904,22 @@
         <v>132</v>
       </c>
       <c r="J8" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K8" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L8" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M8" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N8" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O8" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P8" s="92"/>
       <c r="Q8" s="112"/>
@@ -21922,7 +21945,7 @@
         <v>Concurrent Technologies Corporation</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C9" s="76">
         <v>189737810</v>
@@ -21946,22 +21969,22 @@
         <v>159</v>
       </c>
       <c r="J9" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K9" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L9" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M9" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N9" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O9" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P9" s="92"/>
       <c r="Q9" s="112"/>
@@ -21987,7 +22010,7 @@
         <v xml:space="preserve">Engility Corporation </v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C10" s="113">
         <v>69341972</v>
@@ -22011,22 +22034,22 @@
         <v>194</v>
       </c>
       <c r="J10" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K10" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L10" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M10" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N10" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O10" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P10" s="92"/>
       <c r="Q10" s="112"/>
@@ -22052,7 +22075,7 @@
         <v>Jacobs Technology, Inc.</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C11" s="76">
         <v>7923014</v>
@@ -22076,22 +22099,22 @@
         <v>305</v>
       </c>
       <c r="J11" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K11" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L11" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M11" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N11" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O11" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P11" s="92"/>
       <c r="Q11" s="112"/>
@@ -22117,7 +22140,7 @@
         <v>Kbrwyle Technology Solutions, LLC dba KBRWYLE</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C12" s="76">
         <v>41014242</v>
@@ -22141,22 +22164,22 @@
         <v>321</v>
       </c>
       <c r="J12" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K12" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L12" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M12" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N12" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O12" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P12" s="92"/>
       <c r="Q12" s="112"/>
@@ -22182,7 +22205,7 @@
         <v>Leidos, Inc.</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C13" s="76">
         <v>54781240</v>
@@ -22206,22 +22229,22 @@
         <v>329</v>
       </c>
       <c r="J13" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K13" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L13" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M13" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N13" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O13" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P13" s="92"/>
       <c r="Q13" s="112"/>
@@ -22247,7 +22270,7 @@
         <v>Lockheed Martin Integrated Systems, LLC.</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C14" s="76">
         <v>780820002</v>
@@ -22271,22 +22294,22 @@
         <v>338</v>
       </c>
       <c r="J14" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K14" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L14" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M14" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N14" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O14" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P14" s="92"/>
       <c r="Q14" s="112"/>
@@ -22312,7 +22335,7 @@
         <v>Northrop Grumman Systems Corporation</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C15" s="76">
         <v>78502520</v>
@@ -22336,22 +22359,22 @@
         <v>419</v>
       </c>
       <c r="J15" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K15" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L15" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M15" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N15" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O15" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P15" s="92"/>
       <c r="Q15" s="112"/>
@@ -22377,7 +22400,7 @@
         <v>Raytheon Company</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C16" s="76">
         <v>53387429</v>
@@ -22401,22 +22424,22 @@
         <v>478</v>
       </c>
       <c r="J16" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K16" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L16" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M16" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N16" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O16" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P16" s="92"/>
       <c r="Q16" s="112"/>
@@ -22442,7 +22465,7 @@
         <v>Science Applications International Corporation dba SAIC</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C17" s="76">
         <v>78883327</v>
@@ -22466,22 +22489,22 @@
         <v>496</v>
       </c>
       <c r="J17" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K17" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L17" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M17" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N17" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O17" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P17" s="92"/>
       <c r="Q17" s="112"/>
@@ -22507,7 +22530,7 @@
         <v>Scientific Research Corporation</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C18" s="76">
         <v>197138274</v>
@@ -22531,22 +22554,22 @@
         <v>504</v>
       </c>
       <c r="J18" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K18" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L18" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M18" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N18" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O18" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P18" s="92"/>
       <c r="Q18" s="112"/>
@@ -22572,7 +22595,7 @@
         <v>Serco, Inc.</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C19" s="76">
         <v>928859149</v>
@@ -22596,22 +22619,22 @@
         <v>511</v>
       </c>
       <c r="J19" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K19" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L19" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M19" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N19" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O19" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P19" s="92"/>
       <c r="Q19" s="112"/>
@@ -22637,7 +22660,7 @@
         <v>SGT, Inc.</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C20" s="76">
         <v>878901396</v>
@@ -22661,22 +22684,22 @@
         <v>520</v>
       </c>
       <c r="J20" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K20" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L20" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M20" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N20" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O20" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P20" s="92"/>
       <c r="Q20" s="112"/>
@@ -22702,7 +22725,7 @@
         <v>Vencore Services and Solutions, Inc.</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C21" s="76">
         <v>827599759</v>
@@ -22726,22 +22749,22 @@
         <v>636</v>
       </c>
       <c r="J21" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K21" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L21" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M21" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N21" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O21" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P21" s="92"/>
       <c r="Q21" s="112"/>
@@ -22767,7 +22790,7 @@
         <v>Wyle Laboratories, Inc.</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C22" s="76">
         <v>41024415</v>
@@ -22791,22 +22814,22 @@
         <v>666</v>
       </c>
       <c r="J22" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K22" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L22" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M22" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N22" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O22" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P22" s="92"/>
       <c r="Q22" s="112"/>
@@ -23769,7 +23792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -23781,16 +23804,16 @@
       <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="40.69921875" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" style="70" customWidth="1"/>
-    <col min="3" max="3" width="8.19921875" customWidth="1"/>
-    <col min="4" max="4" width="25.69921875" customWidth="1"/>
-    <col min="5" max="6" width="25.69921875" style="70" customWidth="1"/>
-    <col min="7" max="7" width="25.69921875" customWidth="1"/>
-    <col min="8" max="32" width="8.59765625" customWidth="1"/>
-    <col min="33" max="1031" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="6" width="25.75" style="70" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="32" width="8.625" customWidth="1"/>
+    <col min="33" max="1031" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="47.25" customHeight="1">
@@ -23822,22 +23845,22 @@
         <v>678</v>
       </c>
       <c r="J1" s="120" t="s">
+        <v>918</v>
+      </c>
+      <c r="K1" s="120" t="s">
+        <v>919</v>
+      </c>
+      <c r="L1" s="120" t="s">
         <v>920</v>
       </c>
-      <c r="K1" s="120" t="s">
+      <c r="M1" s="120" t="s">
         <v>921</v>
       </c>
-      <c r="L1" s="120" t="s">
+      <c r="N1" s="120" t="s">
         <v>922</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="O1" s="120" t="s">
         <v>923</v>
-      </c>
-      <c r="N1" s="120" t="s">
-        <v>924</v>
-      </c>
-      <c r="O1" s="120" t="s">
-        <v>925</v>
       </c>
       <c r="P1" s="74" t="s">
         <v>679</v>
@@ -23849,7 +23872,7 @@
         <v>Applied Research Associates, Inc., dba ARA</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C2" s="76">
         <v>97967608</v>
@@ -23873,22 +23896,22 @@
         <v>66</v>
       </c>
       <c r="J2" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K2" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L2" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M2" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N2" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O2" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P2" s="92"/>
     </row>
@@ -23898,7 +23921,7 @@
         <v>Battelle Memorial Institute</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C3" s="76">
         <v>7901598</v>
@@ -23922,22 +23945,22 @@
         <v>84</v>
       </c>
       <c r="J3" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K3" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L3" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M3" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N3" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O3" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P3" s="92"/>
     </row>
@@ -23947,7 +23970,7 @@
         <v>Boeing Aerospace Operations, Inc.</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C4" s="76">
         <v>175304687</v>
@@ -23971,22 +23994,22 @@
         <v>93</v>
       </c>
       <c r="J4" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K4" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L4" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M4" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N4" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O4" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P4" s="92"/>
     </row>
@@ -23996,7 +24019,7 @@
         <v>Booz Allen Hamilton, Inc.</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C5" s="76">
         <v>6928857</v>
@@ -24020,22 +24043,22 @@
         <v>101</v>
       </c>
       <c r="J5" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K5" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L5" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M5" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N5" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O5" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P5" s="92"/>
     </row>
@@ -24045,7 +24068,7 @@
         <v>CACI NSS, Inc.</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C6" s="76">
         <v>136127482</v>
@@ -24069,22 +24092,22 @@
         <v>109</v>
       </c>
       <c r="J6" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K6" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L6" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M6" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N6" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O6" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P6" s="92"/>
     </row>
@@ -24094,7 +24117,7 @@
         <v>CGI Federal, Inc.</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C7" s="76">
         <v>145969783</v>
@@ -24118,22 +24141,22 @@
         <v>132</v>
       </c>
       <c r="J7" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K7" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L7" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M7" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N7" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O7" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P7" s="92"/>
     </row>
@@ -24143,7 +24166,7 @@
         <v>CSRA LLC</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C8" s="76">
         <v>79735371</v>
@@ -24167,22 +24190,22 @@
         <v>150</v>
       </c>
       <c r="J8" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K8" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L8" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M8" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N8" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O8" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P8" s="92"/>
     </row>
@@ -24192,7 +24215,7 @@
         <v xml:space="preserve">Engility Corporation </v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C9" s="113">
         <v>69341972</v>
@@ -24216,22 +24239,22 @@
         <v>194</v>
       </c>
       <c r="J9" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K9" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L9" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M9" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N9" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O9" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P9" s="92"/>
     </row>
@@ -24241,7 +24264,7 @@
         <v>Jacobs Technology, Inc.</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C10" s="76">
         <v>7923014</v>
@@ -24265,22 +24288,22 @@
         <v>305</v>
       </c>
       <c r="J10" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K10" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L10" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M10" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N10" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O10" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P10" s="92"/>
     </row>
@@ -24290,7 +24313,7 @@
         <v>Kbrwyle Technology Solutions, LLC dba KBRWYLE</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C11" s="76">
         <v>41014242</v>
@@ -24314,22 +24337,22 @@
         <v>321</v>
       </c>
       <c r="J11" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K11" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L11" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M11" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N11" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O11" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P11" s="92"/>
     </row>
@@ -24339,7 +24362,7 @@
         <v>Leidos, Inc.</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C12" s="76">
         <v>54781240</v>
@@ -24363,22 +24386,22 @@
         <v>329</v>
       </c>
       <c r="J12" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K12" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L12" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M12" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N12" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O12" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P12" s="92"/>
     </row>
@@ -24388,7 +24411,7 @@
         <v>Lockheed Martin Integrated Systems, LLC.</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C13" s="76">
         <v>780820002</v>
@@ -24412,22 +24435,22 @@
         <v>338</v>
       </c>
       <c r="J13" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K13" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L13" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M13" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N13" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O13" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P13" s="92"/>
     </row>
@@ -24437,7 +24460,7 @@
         <v>ManTech Advanced Systems International, Inc.</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C14" s="76">
         <v>139627525</v>
@@ -24461,22 +24484,22 @@
         <v>364</v>
       </c>
       <c r="J14" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K14" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L14" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M14" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N14" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O14" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P14" s="92"/>
     </row>
@@ -24486,7 +24509,7 @@
         <v>Northrop Grumman Systems Corporation</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C15" s="76">
         <v>78502520</v>
@@ -24510,22 +24533,22 @@
         <v>419</v>
       </c>
       <c r="J15" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K15" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L15" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M15" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N15" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O15" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P15" s="92"/>
     </row>
@@ -24535,7 +24558,7 @@
         <v>Parsons Government Services, Inc</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C16" s="76">
         <v>6908511</v>
@@ -24559,22 +24582,22 @@
         <v>448</v>
       </c>
       <c r="J16" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K16" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L16" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M16" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N16" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O16" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P16" s="92"/>
     </row>
@@ -24584,7 +24607,7 @@
         <v>Raytheon Company</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C17" s="76">
         <v>53387429</v>
@@ -24608,22 +24631,22 @@
         <v>478</v>
       </c>
       <c r="J17" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K17" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L17" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M17" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N17" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O17" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P17" s="92"/>
     </row>
@@ -24633,7 +24656,7 @@
         <v>Science Applications International Corporation dba SAIC</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C18" s="76">
         <v>78883327</v>
@@ -24657,22 +24680,22 @@
         <v>496</v>
       </c>
       <c r="J18" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K18" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L18" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M18" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N18" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O18" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P18" s="92"/>
     </row>
@@ -24682,7 +24705,7 @@
         <v>Scientific Research Corporation</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C19" s="76">
         <v>197138274</v>
@@ -24706,22 +24729,22 @@
         <v>504</v>
       </c>
       <c r="J19" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K19" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L19" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M19" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N19" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O19" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P19" s="92"/>
     </row>
@@ -24731,7 +24754,7 @@
         <v>SGT, Inc.</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C20" s="76">
         <v>878901396</v>
@@ -24755,22 +24778,22 @@
         <v>520</v>
       </c>
       <c r="J20" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K20" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L20" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M20" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N20" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O20" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P20" s="92"/>
     </row>
@@ -24780,7 +24803,7 @@
         <v>Southwest Research Institute</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C21" s="76">
         <v>7936842</v>
@@ -24804,22 +24827,22 @@
         <v>536</v>
       </c>
       <c r="J21" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K21" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L21" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M21" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N21" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O21" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P21" s="92"/>
     </row>
@@ -24829,7 +24852,7 @@
         <v>Vencore, Inc.</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C22" s="76">
         <v>965519098</v>
@@ -24853,22 +24876,22 @@
         <v>636</v>
       </c>
       <c r="J22" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K22" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L22" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M22" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N22" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O22" s="123" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P22" s="92"/>
     </row>
@@ -25761,31 +25784,31 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:AF924"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="O13" sqref="J13:O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="40.69921875" customWidth="1"/>
-    <col min="2" max="2" width="20.296875" style="70" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" customWidth="1"/>
-    <col min="4" max="4" width="25.69921875" customWidth="1"/>
-    <col min="5" max="6" width="25.69921875" style="70" customWidth="1"/>
-    <col min="7" max="7" width="25.69921875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" customWidth="1"/>
-    <col min="9" max="9" width="35.796875" customWidth="1"/>
-    <col min="10" max="15" width="10.09765625" customWidth="1"/>
-    <col min="16" max="32" width="8.59765625" customWidth="1"/>
-    <col min="33" max="1031" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="70" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="6" width="25.75" style="70" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="35.75" customWidth="1"/>
+    <col min="10" max="15" width="10.125" customWidth="1"/>
+    <col min="16" max="32" width="8.625" customWidth="1"/>
+    <col min="33" max="1031" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="70" customFormat="1" ht="47.25" customHeight="1">
@@ -25817,22 +25840,22 @@
         <v>678</v>
       </c>
       <c r="J1" s="120" t="s">
+        <v>918</v>
+      </c>
+      <c r="K1" s="120" t="s">
+        <v>919</v>
+      </c>
+      <c r="L1" s="120" t="s">
         <v>920</v>
       </c>
-      <c r="K1" s="120" t="s">
+      <c r="M1" s="120" t="s">
         <v>921</v>
       </c>
-      <c r="L1" s="120" t="s">
+      <c r="N1" s="120" t="s">
         <v>922</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="O1" s="120" t="s">
         <v>923</v>
-      </c>
-      <c r="N1" s="120" t="s">
-        <v>924</v>
-      </c>
-      <c r="O1" s="120" t="s">
-        <v>925</v>
       </c>
       <c r="P1" s="74" t="s">
         <v>679</v>
@@ -25844,7 +25867,7 @@
         <v>Applied Research Associates, Inc., dba ARA</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C2" s="76">
         <v>97967608</v>
@@ -25897,7 +25920,7 @@
         <v>Ball Aerospace &amp; Technologies Corporation</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C3" s="76">
         <v>926451519</v>
@@ -25950,7 +25973,7 @@
         <v>Battelle Memorial Institute</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C4" s="76">
         <v>7901598</v>
@@ -26003,7 +26026,7 @@
         <v>Boeing Aerospace Operations, Inc.</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C5" s="76">
         <v>175304687</v>
@@ -26056,7 +26079,7 @@
         <v>Booz Allen Hamilton, Inc.</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C6" s="76">
         <v>6928857</v>
@@ -26109,7 +26132,7 @@
         <v>CACI NSS, Inc.</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C7" s="76">
         <v>136127482</v>
@@ -26162,7 +26185,7 @@
         <v>COLSA Corporation</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C8" s="76">
         <v>102067378</v>
@@ -26215,7 +26238,7 @@
         <v>DCS Corporation</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C9" s="76">
         <v>83662916</v>
@@ -26268,7 +26291,7 @@
         <v>Dynamics Research Corporation</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C10" s="76">
         <v>1014182</v>
@@ -26321,7 +26344,7 @@
         <v>Dynetics, Inc.</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C11" s="76">
         <v>75458455</v>
@@ -26374,7 +26397,7 @@
         <v xml:space="preserve">Engility Corporation </v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C12" s="115">
         <v>69341972</v>
@@ -26427,7 +26450,7 @@
         <v>General Dynamics Information Technology, Inc.</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C13" s="116">
         <v>67641597</v>
@@ -26451,22 +26474,22 @@
         <v>235</v>
       </c>
       <c r="J13" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K13" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L13" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M13" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N13" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O13" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P13" s="92"/>
       <c r="Q13" s="112"/>
@@ -26492,7 +26515,7 @@
         <v>Georgia Tech Applied Research Corporation</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C14" s="76">
         <v>364124651</v>
@@ -26516,22 +26539,22 @@
         <v>245</v>
       </c>
       <c r="J14" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K14" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L14" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M14" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N14" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O14" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P14" s="92"/>
       <c r="Q14" s="112"/>
@@ -26557,7 +26580,7 @@
         <v>Intuitive Research and Technology Corporation</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C15" s="76">
         <v>34964945</v>
@@ -26581,22 +26604,22 @@
         <v>297</v>
       </c>
       <c r="J15" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K15" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L15" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M15" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N15" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O15" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P15" s="92"/>
       <c r="Q15" s="112"/>
@@ -26622,7 +26645,7 @@
         <v>Jacobs Technology, Inc.</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C16" s="76">
         <v>7923014</v>
@@ -26646,22 +26669,22 @@
         <v>305</v>
       </c>
       <c r="J16" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K16" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L16" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M16" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N16" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O16" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P16" s="92"/>
       <c r="Q16" s="112"/>
@@ -26687,7 +26710,7 @@
         <v>Kbrwyle Technology Solutions, LLC dba KBRWYLE</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C17" s="76">
         <v>41014242</v>
@@ -26711,22 +26734,22 @@
         <v>321</v>
       </c>
       <c r="J17" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K17" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L17" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M17" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N17" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O17" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P17" s="92"/>
       <c r="Q17" s="112"/>
@@ -26752,7 +26775,7 @@
         <v>Leidos, Inc.</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C18" s="76">
         <v>54781240</v>
@@ -26776,22 +26799,22 @@
         <v>329</v>
       </c>
       <c r="J18" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K18" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L18" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M18" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N18" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O18" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P18" s="92"/>
       <c r="Q18" s="112"/>
@@ -26817,7 +26840,7 @@
         <v>Lockheed Martin Integrated Systems, LLC.</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C19" s="76">
         <v>780820002</v>
@@ -26841,22 +26864,22 @@
         <v>338</v>
       </c>
       <c r="J19" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K19" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L19" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M19" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N19" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O19" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P19" s="92"/>
       <c r="Q19" s="112"/>
@@ -26882,7 +26905,7 @@
         <v>Logistics Management Institute (LMI)</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C20" s="76">
         <v>53385738</v>
@@ -26906,22 +26929,22 @@
         <v>347</v>
       </c>
       <c r="J20" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K20" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L20" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M20" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N20" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O20" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P20" s="92"/>
       <c r="Q20" s="112"/>
@@ -26947,7 +26970,7 @@
         <v>MacAulay-Brown, Inc</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C21" s="76">
         <v>96500483</v>
@@ -26971,22 +26994,22 @@
         <v>356</v>
       </c>
       <c r="J21" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K21" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L21" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M21" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N21" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O21" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P21" s="92"/>
       <c r="Q21" s="112"/>
@@ -27012,7 +27035,7 @@
         <v>MCR Federal, LLC</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C22" s="76">
         <v>28509656</v>
@@ -27036,22 +27059,22 @@
         <v>373</v>
       </c>
       <c r="J22" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K22" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L22" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M22" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N22" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O22" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P22" s="92"/>
       <c r="Q22" s="112"/>
@@ -27077,7 +27100,7 @@
         <v>MEI Technologies, Inc.</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C23" s="76">
         <v>859145658</v>
@@ -27101,22 +27124,22 @@
         <v>382</v>
       </c>
       <c r="J23" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K23" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L23" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M23" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N23" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O23" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P23" s="92"/>
       <c r="Q23" s="112"/>
@@ -27142,7 +27165,7 @@
         <v>Northrop Grumman Systems Corporation</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C24" s="76">
         <v>78502520</v>
@@ -27166,22 +27189,22 @@
         <v>419</v>
       </c>
       <c r="J24" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K24" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L24" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M24" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N24" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O24" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P24" s="92"/>
       <c r="Q24" s="112"/>
@@ -27207,7 +27230,7 @@
         <v>Oasis Systems, LLC</v>
       </c>
       <c r="B25" s="79" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C25" s="76">
         <v>176018810</v>
@@ -27231,22 +27254,22 @@
         <v>428</v>
       </c>
       <c r="J25" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K25" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L25" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M25" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N25" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O25" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P25" s="92"/>
       <c r="Q25" s="112"/>
@@ -27272,7 +27295,7 @@
         <v>Quantech Services, Inc.</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C26" s="76">
         <v>57644887</v>
@@ -27281,7 +27304,7 @@
         <v>458</v>
       </c>
       <c r="E26" s="81" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F26" s="81" t="s">
         <v>462</v>
@@ -27290,28 +27313,28 @@
         <v>459</v>
       </c>
       <c r="H26" s="112" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I26" s="112" t="s">
         <v>462</v>
       </c>
       <c r="J26" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K26" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L26" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M26" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N26" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O26" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P26" s="92"/>
       <c r="Q26" s="112"/>
@@ -27337,7 +27360,7 @@
         <v>Radiance Technologies, Inc.</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C27" s="76">
         <v>31994218</v>
@@ -27361,22 +27384,22 @@
         <v>470</v>
       </c>
       <c r="J27" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K27" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L27" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M27" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N27" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O27" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P27" s="92"/>
       <c r="Q27" s="112"/>
@@ -27402,7 +27425,7 @@
         <v>Raytheon Company</v>
       </c>
       <c r="B28" s="79" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C28" s="76">
         <v>53387429</v>
@@ -27426,22 +27449,22 @@
         <v>478</v>
       </c>
       <c r="J28" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K28" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L28" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M28" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N28" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O28" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P28" s="92"/>
       <c r="Q28" s="112"/>
@@ -27467,7 +27490,7 @@
         <v>Science Applications International Corporation dba SAIC</v>
       </c>
       <c r="B29" s="79" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C29" s="76">
         <v>78883327</v>
@@ -27491,22 +27514,22 @@
         <v>496</v>
       </c>
       <c r="J29" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K29" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L29" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M29" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N29" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O29" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P29" s="92"/>
       <c r="Q29" s="112"/>
@@ -27532,7 +27555,7 @@
         <v>Scientific Research Corporation</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C30" s="76">
         <v>197138274</v>
@@ -27556,22 +27579,22 @@
         <v>504</v>
       </c>
       <c r="J30" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K30" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L30" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M30" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N30" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O30" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P30" s="92"/>
       <c r="Q30" s="112"/>
@@ -27597,7 +27620,7 @@
         <v>Serco, Inc.</v>
       </c>
       <c r="B31" s="79" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C31" s="76">
         <v>928859149</v>
@@ -27621,22 +27644,22 @@
         <v>511</v>
       </c>
       <c r="J31" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K31" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L31" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M31" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N31" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O31" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P31" s="92"/>
       <c r="Q31" s="112"/>
@@ -27662,7 +27685,7 @@
         <v>SGT, Inc.</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C32" s="76">
         <v>878901396</v>
@@ -27686,22 +27709,22 @@
         <v>520</v>
       </c>
       <c r="J32" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K32" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L32" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M32" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N32" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O32" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P32" s="92"/>
       <c r="Q32" s="112"/>
@@ -27727,7 +27750,7 @@
         <v>Sigmatech, Inc.</v>
       </c>
       <c r="B33" s="79" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C33" s="76">
         <v>193460839</v>
@@ -27751,22 +27774,22 @@
         <v>528</v>
       </c>
       <c r="J33" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K33" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L33" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M33" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N33" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O33" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P33" s="92"/>
       <c r="Q33" s="112"/>
@@ -27792,7 +27815,7 @@
         <v>Sumaria Systems, Inc.</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C34" s="76">
         <v>146389622</v>
@@ -27816,22 +27839,22 @@
         <v>562</v>
       </c>
       <c r="J34" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K34" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L34" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M34" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N34" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O34" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P34" s="92"/>
       <c r="Q34" s="112"/>
@@ -27857,7 +27880,7 @@
         <v>Torch Technologies, Inc.</v>
       </c>
       <c r="B35" s="79" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C35" s="76">
         <v>122515708</v>
@@ -27881,22 +27904,22 @@
         <v>609</v>
       </c>
       <c r="J35" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K35" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L35" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M35" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N35" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O35" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P35" s="92"/>
       <c r="Q35" s="112"/>
@@ -27922,7 +27945,7 @@
         <v>URS Federal Services, Inc.</v>
       </c>
       <c r="B36" s="79" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C36" s="76">
         <v>961530545</v>
@@ -27946,22 +27969,22 @@
         <v>627</v>
       </c>
       <c r="J36" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K36" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L36" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M36" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N36" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O36" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P36" s="92"/>
       <c r="Q36" s="112"/>
@@ -27987,7 +28010,7 @@
         <v>Vencore Services and Solutions, Inc.</v>
       </c>
       <c r="B37" s="79" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C37" s="76">
         <v>827599759</v>
@@ -28011,22 +28034,22 @@
         <v>636</v>
       </c>
       <c r="J37" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K37" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L37" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M37" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N37" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O37" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P37" s="92"/>
       <c r="Q37" s="112"/>
@@ -28052,7 +28075,7 @@
         <v>Whitney, Bradley &amp; Brown, Inc. dba WBB</v>
       </c>
       <c r="B38" s="79" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C38" s="76">
         <v>131873457</v>
@@ -28076,22 +28099,22 @@
         <v>657</v>
       </c>
       <c r="J38" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K38" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L38" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M38" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N38" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O38" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P38" s="92"/>
       <c r="Q38" s="112"/>
@@ -28117,7 +28140,7 @@
         <v>Wyle Laboratories, Inc.</v>
       </c>
       <c r="B39" s="79" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C39" s="76">
         <v>41024415</v>
@@ -28141,22 +28164,22 @@
         <v>666</v>
       </c>
       <c r="J39" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K39" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L39" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M39" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N39" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O39" s="112" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P39" s="92"/>
       <c r="Q39" s="112"/>
@@ -29067,14 +29090,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="46.5" customWidth="1"/>
     <col min="2" max="1025" width="8.5" customWidth="1"/>

--- a/app/data/pools/oasis.xlsx
+++ b/app/data/pools/oasis.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\discovery\app\data\pools\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90833E30-C559-4E2D-9595-E55C1A1E7F80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="OASIS Contractors" sheetId="1" r:id="rId1"/>
@@ -23,13 +17,8 @@
     <sheet name="POOL (6)" sheetId="8" r:id="rId8"/>
     <sheet name="VendorList" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -38,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4107" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="927">
   <si>
     <t>OASIS Contractor Name and Address</t>
   </si>
@@ -2218,6 +2207,12 @@
     <t>GS00Q14OADU140</t>
   </si>
   <si>
+    <t>GS00Q14OADU128</t>
+  </si>
+  <si>
+    <t>GS00Q14OADU142</t>
+  </si>
+  <si>
     <t>GS00Q14OADU202</t>
   </si>
   <si>
@@ -2813,32 +2808,17 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>test vendor 1</t>
-  </si>
-  <si>
-    <t>GS00Q1400000000</t>
-  </si>
-  <si>
-    <t>Test 1</t>
-  </si>
-  <si>
-    <t>484-687-1111</t>
-  </si>
-  <si>
-    <t>test@test.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="000000000"/>
     <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2952,13 +2932,6 @@
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Arial"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -3296,12 +3269,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3628,13 +3600,9 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3711,9 +3679,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3761,7 +3726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3794,26 +3759,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3846,23 +3794,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4038,7 +3969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4049,15 +3980,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="41.625" customWidth="1"/>
-    <col min="2" max="3" width="25.75" customWidth="1"/>
-    <col min="4" max="10" width="3.625" customWidth="1"/>
-    <col min="11" max="11" width="7.625" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
-    <col min="13" max="26" width="8.625" customWidth="1"/>
-    <col min="27" max="1025" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="41.59765625" customWidth="1"/>
+    <col min="2" max="3" width="25.69921875" customWidth="1"/>
+    <col min="4" max="10" width="3.59765625" customWidth="1"/>
+    <col min="11" max="11" width="7.59765625" customWidth="1"/>
+    <col min="12" max="12" width="5.59765625" customWidth="1"/>
+    <col min="13" max="26" width="8.59765625" customWidth="1"/>
+    <col min="27" max="1025" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="50.25" customHeight="1">
@@ -10344,28 +10275,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:P909"/>
+  <dimension ref="A1:P910"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="40.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="70" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="6" width="25.75" style="70" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="24" width="8.625" customWidth="1"/>
-    <col min="25" max="1031" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" customWidth="1"/>
+    <col min="5" max="6" width="25.69921875" style="70" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
+    <col min="8" max="24" width="8.59765625" customWidth="1"/>
+    <col min="25" max="1031" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="42" customHeight="1">
@@ -10397,22 +10328,22 @@
         <v>678</v>
       </c>
       <c r="J1" s="120" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="K1" s="120" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="L1" s="120" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="M1" s="120" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="N1" s="120" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="O1" s="120" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="P1" s="74" t="s">
         <v>679</v>
@@ -10448,22 +10379,22 @@
         <v>21</v>
       </c>
       <c r="J2" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K2" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L2" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M2" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N2" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O2" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
@@ -10496,22 +10427,22 @@
         <v>30</v>
       </c>
       <c r="J3" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K3" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L3" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M3" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N3" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O3" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
@@ -10544,22 +10475,22 @@
         <v>39</v>
       </c>
       <c r="J4" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K4" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L4" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M4" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N4" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O4" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
@@ -10592,22 +10523,22 @@
         <v>49</v>
       </c>
       <c r="J5" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K5" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L5" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M5" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N5" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O5" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
@@ -10640,22 +10571,22 @@
         <v>66</v>
       </c>
       <c r="J6" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K6" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L6" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M6" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N6" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O6" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
@@ -10688,22 +10619,22 @@
         <v>75</v>
       </c>
       <c r="J7" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K7" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L7" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M7" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N7" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O7" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
@@ -10736,22 +10667,22 @@
         <v>84</v>
       </c>
       <c r="J8" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K8" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L8" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M8" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N8" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O8" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
@@ -10784,22 +10715,22 @@
         <v>93</v>
       </c>
       <c r="J9" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K9" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L9" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M9" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N9" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O9" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
@@ -10832,22 +10763,22 @@
         <v>101</v>
       </c>
       <c r="J10" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K10" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L10" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M10" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N10" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O10" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
@@ -10880,22 +10811,22 @@
         <v>109</v>
       </c>
       <c r="J11" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K11" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L11" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M11" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N11" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O11" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1">
@@ -10928,22 +10859,22 @@
         <v>123</v>
       </c>
       <c r="J12" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K12" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L12" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M12" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N12" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O12" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1">
@@ -10976,22 +10907,22 @@
         <v>132</v>
       </c>
       <c r="J13" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K13" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L13" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M13" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N13" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O13" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
@@ -11024,22 +10955,22 @@
         <v>150</v>
       </c>
       <c r="J14" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K14" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L14" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M14" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N14" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O14" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
@@ -11072,22 +11003,22 @@
         <v>159</v>
       </c>
       <c r="J15" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K15" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L15" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M15" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N15" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O15" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
@@ -11120,22 +11051,22 @@
         <v>168</v>
       </c>
       <c r="J16" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K16" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L16" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M16" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N16" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O16" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
@@ -11168,22 +11099,22 @@
         <v>186</v>
       </c>
       <c r="J17" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K17" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L17" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M17" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N17" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O17" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
@@ -11216,22 +11147,22 @@
         <v>202</v>
       </c>
       <c r="J18" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K18" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L18" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M18" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N18" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O18" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
@@ -11264,22 +11195,22 @@
         <v>211</v>
       </c>
       <c r="J19" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K19" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L19" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M19" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N19" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O19" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1">
@@ -11312,22 +11243,22 @@
         <v>194</v>
       </c>
       <c r="J20" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K20" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L20" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M20" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N20" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O20" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1">
@@ -11360,22 +11291,22 @@
         <v>235</v>
       </c>
       <c r="J21" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K21" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L21" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M21" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N21" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O21" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
@@ -11408,22 +11339,22 @@
         <v>271</v>
       </c>
       <c r="J22" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K22" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L22" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M22" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N22" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O22" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
@@ -11456,22 +11387,22 @@
         <v>279</v>
       </c>
       <c r="J23" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K23" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L23" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M23" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N23" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O23" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
@@ -11504,22 +11435,22 @@
         <v>288</v>
       </c>
       <c r="J24" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K24" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L24" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M24" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N24" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O24" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
@@ -11552,22 +11483,22 @@
         <v>305</v>
       </c>
       <c r="J25" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K25" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L25" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M25" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N25" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O25" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
@@ -11600,22 +11531,22 @@
         <v>321</v>
       </c>
       <c r="J26" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K26" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L26" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M26" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N26" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O26" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1">
@@ -11648,22 +11579,22 @@
         <v>329</v>
       </c>
       <c r="J27" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K27" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L27" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M27" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N27" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O27" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1">
@@ -11696,22 +11627,22 @@
         <v>338</v>
       </c>
       <c r="J28" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K28" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L28" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M28" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N28" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O28" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1">
@@ -11744,22 +11675,22 @@
         <v>347</v>
       </c>
       <c r="J29" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K29" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L29" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M29" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N29" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O29" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1">
@@ -11792,22 +11723,22 @@
         <v>364</v>
       </c>
       <c r="J30" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K30" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L30" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M30" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N30" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O30" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
@@ -11840,22 +11771,22 @@
         <v>410</v>
       </c>
       <c r="J31" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K31" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L31" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M31" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N31" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O31" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
@@ -11888,22 +11819,22 @@
         <v>419</v>
       </c>
       <c r="J32" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K32" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L32" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M32" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N32" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O32" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
@@ -11936,22 +11867,22 @@
         <v>438</v>
       </c>
       <c r="J33" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K33" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L33" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M33" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N33" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O33" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
@@ -11984,22 +11915,22 @@
         <v>448</v>
       </c>
       <c r="J34" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K34" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L34" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M34" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N34" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O34" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1">
@@ -12032,22 +11963,22 @@
         <v>478</v>
       </c>
       <c r="J35" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K35" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L35" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M35" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N35" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O35" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1">
@@ -12080,22 +12011,22 @@
         <v>496</v>
       </c>
       <c r="J36" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K36" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L36" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M36" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N36" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O36" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1">
@@ -12128,22 +12059,22 @@
         <v>504</v>
       </c>
       <c r="J37" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K37" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L37" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M37" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N37" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O37" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1">
@@ -12176,22 +12107,22 @@
         <v>511</v>
       </c>
       <c r="J38" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K38" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L38" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M38" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N38" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O38" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1">
@@ -12224,22 +12155,22 @@
         <v>520</v>
       </c>
       <c r="J39" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K39" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L39" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M39" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N39" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O39" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
@@ -12272,22 +12203,22 @@
         <v>536</v>
       </c>
       <c r="J40" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K40" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L40" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M40" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N40" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O40" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
@@ -12320,22 +12251,22 @@
         <v>544</v>
       </c>
       <c r="J41" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K41" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L41" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M41" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N41" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O41" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
@@ -12368,22 +12299,22 @@
         <v>589</v>
       </c>
       <c r="J42" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K42" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L42" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M42" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N42" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O42" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
@@ -12416,22 +12347,22 @@
         <v>617</v>
       </c>
       <c r="J43" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K43" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L43" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M43" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N43" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O43" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
@@ -12464,45 +12395,46 @@
         <v>627</v>
       </c>
       <c r="J44" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K44" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L44" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M44" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N44" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O44" s="121" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A45" s="90" t="s">
-        <v>925</v>
+        <v>926</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A45" s="90" t="str">
+        <f>'OASIS Contractors'!A221</f>
+        <v>Vencore Services and Solutions, Inc.</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>926</v>
+        <v>726</v>
       </c>
       <c r="C45" s="76">
-        <v>1111</v>
+        <v>827599759</v>
       </c>
       <c r="D45" s="77" t="s">
-        <v>927</v>
+        <v>629</v>
       </c>
       <c r="E45" s="78" t="s">
-        <v>928</v>
-      </c>
-      <c r="F45" s="124" t="s">
-        <v>929</v>
+        <v>633</v>
+      </c>
+      <c r="F45" s="78" t="s">
+        <v>636</v>
       </c>
       <c r="G45" s="77" t="s">
-        <v>927</v>
+        <v>630</v>
       </c>
       <c r="H45" s="70" t="s">
         <v>634</v>
@@ -12511,25 +12443,72 @@
         <v>636</v>
       </c>
       <c r="J45" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K45" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L45" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M45" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N45" s="121" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O45" s="121" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="13.5" customHeight="1"/>
+        <v>926</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A46" s="79" t="str">
+        <f>'OASIS Contractors'!A230</f>
+        <v>Wyle Laboratories, Inc.</v>
+      </c>
+      <c r="B46" s="75" t="s">
+        <v>727</v>
+      </c>
+      <c r="C46" s="76">
+        <v>41024415</v>
+      </c>
+      <c r="D46" s="80" t="s">
+        <v>659</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>663</v>
+      </c>
+      <c r="F46" s="78" t="s">
+        <v>666</v>
+      </c>
+      <c r="G46" s="81" t="s">
+        <v>660</v>
+      </c>
+      <c r="H46" s="70" t="s">
+        <v>664</v>
+      </c>
+      <c r="I46" s="70" t="s">
+        <v>666</v>
+      </c>
+      <c r="J46" s="121" t="s">
+        <v>926</v>
+      </c>
+      <c r="K46" s="121" t="s">
+        <v>926</v>
+      </c>
+      <c r="L46" s="121" t="s">
+        <v>926</v>
+      </c>
+      <c r="M46" s="121" t="s">
+        <v>926</v>
+      </c>
+      <c r="N46" s="121" t="s">
+        <v>926</v>
+      </c>
+      <c r="O46" s="121" t="s">
+        <v>926</v>
+      </c>
+    </row>
     <row r="47" spans="1:15" ht="13.5" customHeight="1"/>
     <row r="48" spans="1:15" ht="13.5" customHeight="1"/>
     <row r="49" ht="13.5" customHeight="1"/>
@@ -13393,17 +13372,15 @@
     <row r="907" ht="13.5" customHeight="1"/>
     <row r="908" ht="13.5" customHeight="1"/>
     <row r="909" ht="13.5" customHeight="1"/>
+    <row r="910" ht="13.5" customHeight="1"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F45" r:id="rId1" xr:uid="{929C8922-F186-406B-8569-32D1F74BD2A3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -13415,16 +13392,16 @@
       <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="40.69921875" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="70" customWidth="1"/>
-    <col min="3" max="3" width="7.75" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="6" width="25.75" style="70" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="32" width="8.625" customWidth="1"/>
-    <col min="33" max="1031" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="7.69921875" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" customWidth="1"/>
+    <col min="5" max="6" width="25.69921875" style="70" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
+    <col min="8" max="32" width="8.59765625" customWidth="1"/>
+    <col min="33" max="1031" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.75" customHeight="1">
@@ -13456,22 +13433,22 @@
         <v>678</v>
       </c>
       <c r="J1" s="120" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="K1" s="120" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="L1" s="120" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="M1" s="120" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="N1" s="120" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="O1" s="120" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="P1" s="74" t="s">
         <v>679</v>
@@ -13483,7 +13460,7 @@
         <v>Accenture Federal Services, LLC</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C2" s="76">
         <v>139727148</v>
@@ -13507,22 +13484,22 @@
         <v>21</v>
       </c>
       <c r="J2" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K2" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L2" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M2" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N2" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O2" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P2" s="92"/>
     </row>
@@ -13532,7 +13509,7 @@
         <v>Battelle Memorial Institute</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C3" s="76">
         <v>7901598</v>
@@ -13556,22 +13533,22 @@
         <v>84</v>
       </c>
       <c r="J3" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K3" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L3" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M3" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N3" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O3" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P3" s="92"/>
     </row>
@@ -13581,7 +13558,7 @@
         <v>Booz Allen Hamilton, Inc.</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C4" s="76">
         <v>6928857</v>
@@ -13605,22 +13582,22 @@
         <v>101</v>
       </c>
       <c r="J4" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K4" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L4" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M4" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N4" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O4" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P4" s="92"/>
     </row>
@@ -13630,7 +13607,7 @@
         <v>Deloitte Consulting, LLP</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C5" s="76">
         <v>19121586</v>
@@ -13654,22 +13631,22 @@
         <v>186</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K5" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L5" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M5" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N5" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O5" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P5" s="92"/>
     </row>
@@ -13679,7 +13656,7 @@
         <v xml:space="preserve">Engility Corporation </v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C6" s="76">
         <v>69341972</v>
@@ -13703,22 +13680,22 @@
         <v>194</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K6" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L6" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M6" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N6" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O6" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P6" s="92"/>
     </row>
@@ -13728,7 +13705,7 @@
         <v>ECS Federal Inc.</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C7" s="76">
         <v>806026852</v>
@@ -13752,22 +13729,22 @@
         <v>211</v>
       </c>
       <c r="J7" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K7" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L7" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M7" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N7" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O7" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P7" s="92"/>
     </row>
@@ -13777,7 +13754,7 @@
         <v>General Dynamics Information Technology, Inc.</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C8" s="76">
         <v>67641597</v>
@@ -13801,22 +13778,22 @@
         <v>235</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K8" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L8" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M8" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N8" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O8" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P8" s="92"/>
     </row>
@@ -13826,7 +13803,7 @@
         <v>Grant Thornton, LLP</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C9" s="76">
         <v>128159105</v>
@@ -13850,22 +13827,22 @@
         <v>254</v>
       </c>
       <c r="J9" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K9" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L9" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M9" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O9" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P9" s="92"/>
     </row>
@@ -13875,7 +13852,7 @@
         <v>ICF Incorporated, LLC</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C10" s="76">
         <v>72648579</v>
@@ -13899,22 +13876,22 @@
         <v>279</v>
       </c>
       <c r="J10" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K10" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L10" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M10" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N10" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O10" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P10" s="92"/>
     </row>
@@ -13924,7 +13901,7 @@
         <v>International Business Machines Corporation dba IBM</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C11" s="76">
         <v>835130485</v>
@@ -13948,22 +13925,22 @@
         <v>288</v>
       </c>
       <c r="J11" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K11" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L11" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M11" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N11" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O11" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P11" s="92"/>
     </row>
@@ -13973,7 +13950,7 @@
         <v>Kearney &amp; Company, P.C.</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C12" s="76">
         <v>186576310</v>
@@ -13997,22 +13974,22 @@
         <v>313</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K12" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L12" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M12" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N12" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O12" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P12" s="92"/>
     </row>
@@ -14022,7 +13999,7 @@
         <v>Leidos, Inc.</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C13" s="76">
         <v>54781240</v>
@@ -14046,22 +14023,22 @@
         <v>329</v>
       </c>
       <c r="J13" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K13" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L13" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M13" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N13" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O13" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P13" s="92"/>
     </row>
@@ -14071,7 +14048,7 @@
         <v>Lockheed Martin Integrated Systems, LLC.</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C14" s="76">
         <v>780820002</v>
@@ -14095,22 +14072,22 @@
         <v>338</v>
       </c>
       <c r="J14" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K14" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L14" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M14" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N14" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O14" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P14" s="92"/>
     </row>
@@ -14120,7 +14097,7 @@
         <v>National Opinion Research Center dba NORC</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C15" s="76">
         <v>69512291</v>
@@ -14144,22 +14121,22 @@
         <v>392</v>
       </c>
       <c r="J15" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K15" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L15" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M15" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N15" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O15" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P15" s="92"/>
     </row>
@@ -14169,7 +14146,7 @@
         <v>Navigant Consulting, Inc.</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C16" s="76">
         <v>22582428</v>
@@ -14193,22 +14170,22 @@
         <v>401</v>
       </c>
       <c r="J16" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K16" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L16" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M16" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N16" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O16" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P16" s="92"/>
     </row>
@@ -14218,7 +14195,7 @@
         <v>Northrop Grumman Systems Corporation</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C17" s="76">
         <v>78502520</v>
@@ -14242,22 +14219,22 @@
         <v>419</v>
       </c>
       <c r="J17" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K17" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L17" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M17" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N17" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O17" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P17" s="92"/>
     </row>
@@ -14267,7 +14244,7 @@
         <v>PricewaterhouseCoopers Public Sector LLP</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C18" s="76">
         <v>79529872</v>
@@ -14291,22 +14268,22 @@
         <v>456</v>
       </c>
       <c r="J18" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K18" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L18" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M18" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N18" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O18" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P18" s="92"/>
     </row>
@@ -14316,7 +14293,7 @@
         <v>Research Triangle Institute dba RTI International</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C19" s="76">
         <v>4868105</v>
@@ -14340,22 +14317,22 @@
         <v>487</v>
       </c>
       <c r="J19" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K19" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L19" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M19" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N19" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O19" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P19" s="92"/>
     </row>
@@ -14365,7 +14342,7 @@
         <v>Science Applications International Corporation dba SAIC</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C20" s="76">
         <v>78883327</v>
@@ -14389,22 +14366,22 @@
         <v>496</v>
       </c>
       <c r="J20" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K20" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L20" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M20" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N20" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O20" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P20" s="92"/>
     </row>
@@ -14414,7 +14391,7 @@
         <v>Serco, Inc.</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C21" s="76">
         <v>928859149</v>
@@ -14438,22 +14415,22 @@
         <v>511</v>
       </c>
       <c r="J21" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K21" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L21" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M21" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N21" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O21" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P21" s="92"/>
     </row>
@@ -14463,7 +14440,7 @@
         <v>Teksouth Corporation</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C22" s="76">
         <v>102091550</v>
@@ -14472,7 +14449,7 @@
         <v>564</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F22" s="59" t="s">
         <v>570</v>
@@ -14487,22 +14464,22 @@
         <v>571</v>
       </c>
       <c r="J22" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K22" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L22" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M22" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N22" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O22" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P22" s="92"/>
     </row>
@@ -14512,7 +14489,7 @@
         <v>TeraThink Corporation</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C23" s="76">
         <v>114921872</v>
@@ -14536,22 +14513,22 @@
         <v>579</v>
       </c>
       <c r="J23" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K23" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L23" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M23" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N23" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O23" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P23" s="92"/>
     </row>
@@ -14561,7 +14538,7 @@
         <v>The MIL Corporation</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C24" s="76">
         <v>161579735</v>
@@ -14585,22 +14562,22 @@
         <v>599</v>
       </c>
       <c r="J24" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K24" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L24" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M24" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N24" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O24" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P24" s="92"/>
     </row>
@@ -14610,7 +14587,7 @@
         <v>Unisys Corporation</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C25" s="76">
         <v>150780674</v>
@@ -14634,22 +14611,22 @@
         <v>617</v>
       </c>
       <c r="J25" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K25" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L25" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M25" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N25" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O25" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P25" s="92"/>
     </row>
@@ -14659,7 +14636,7 @@
         <v>Westat, Inc.</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C26" s="76">
         <v>49508120</v>
@@ -14683,22 +14660,22 @@
         <v>649</v>
       </c>
       <c r="J26" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K26" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L26" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M26" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N26" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O26" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P26" s="92"/>
     </row>
@@ -15633,7 +15610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -15645,17 +15622,17 @@
       <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="40.75" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="70" customWidth="1"/>
-    <col min="3" max="3" width="8.125" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="6" width="25.75" style="70" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="40.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" style="70" customWidth="1"/>
+    <col min="3" max="3" width="8.09765625" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" customWidth="1"/>
+    <col min="5" max="6" width="25.69921875" style="70" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="33" width="8.625" customWidth="1"/>
-    <col min="34" max="1031" width="12.625" customWidth="1"/>
+    <col min="9" max="33" width="8.59765625" customWidth="1"/>
+    <col min="34" max="1031" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1">
@@ -15687,22 +15664,22 @@
         <v>678</v>
       </c>
       <c r="J1" s="120" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="K1" s="120" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="L1" s="120" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="M1" s="120" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="N1" s="120" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="O1" s="120" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="P1" s="74" t="s">
         <v>679</v>
@@ -15713,7 +15690,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C2" s="76">
         <v>139727148</v>
@@ -15737,22 +15714,22 @@
         <v>21</v>
       </c>
       <c r="J2" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K2" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L2" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M2" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N2" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O2" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P2" s="92"/>
     </row>
@@ -15761,7 +15738,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C3" s="76">
         <v>963450866</v>
@@ -15785,22 +15762,22 @@
         <v>39</v>
       </c>
       <c r="J3" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K3" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L3" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M3" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N3" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O3" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P3" s="92"/>
     </row>
@@ -15809,7 +15786,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C4" s="76">
         <v>77799799</v>
@@ -15833,22 +15810,22 @@
         <v>57</v>
       </c>
       <c r="J4" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K4" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L4" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M4" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N4" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O4" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P4" s="92"/>
     </row>
@@ -15857,7 +15834,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C5" s="76">
         <v>97967608</v>
@@ -15881,22 +15858,22 @@
         <v>66</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K5" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L5" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M5" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N5" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O5" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P5" s="92"/>
     </row>
@@ -15905,7 +15882,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C6" s="76">
         <v>926451519</v>
@@ -15929,22 +15906,22 @@
         <v>75</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K6" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L6" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M6" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N6" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O6" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P6" s="92"/>
     </row>
@@ -15953,7 +15930,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C7" s="76">
         <v>7901598</v>
@@ -15977,22 +15954,22 @@
         <v>84</v>
       </c>
       <c r="J7" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K7" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L7" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M7" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N7" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O7" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P7" s="92"/>
     </row>
@@ -16001,7 +15978,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C8" s="76">
         <v>175304687</v>
@@ -16025,22 +16002,22 @@
         <v>93</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K8" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L8" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M8" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N8" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O8" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P8" s="92"/>
     </row>
@@ -16049,7 +16026,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C9" s="76">
         <v>6928857</v>
@@ -16073,22 +16050,22 @@
         <v>101</v>
       </c>
       <c r="J9" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K9" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L9" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M9" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O9" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P9" s="92"/>
     </row>
@@ -16097,7 +16074,7 @@
         <v>102</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C10" s="76">
         <v>114896066</v>
@@ -16121,22 +16098,22 @@
         <v>109</v>
       </c>
       <c r="J10" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K10" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L10" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M10" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N10" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O10" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P10" s="92"/>
     </row>
@@ -16145,7 +16122,7 @@
         <v>114</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C11" s="76">
         <v>609570742</v>
@@ -16169,22 +16146,22 @@
         <v>123</v>
       </c>
       <c r="J11" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K11" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L11" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M11" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N11" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O11" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P11" s="92"/>
     </row>
@@ -16193,7 +16170,7 @@
         <v>124</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C12" s="76">
         <v>145969783</v>
@@ -16217,22 +16194,22 @@
         <v>132</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K12" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L12" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M12" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N12" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O12" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P12" s="92"/>
     </row>
@@ -16241,7 +16218,7 @@
         <v>142</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C13" s="76">
         <v>79735371</v>
@@ -16265,22 +16242,22 @@
         <v>150</v>
       </c>
       <c r="J13" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K13" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L13" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M13" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N13" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O13" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P13" s="92"/>
     </row>
@@ -16289,7 +16266,7 @@
         <v>151</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C14" s="76">
         <v>189737810</v>
@@ -16313,22 +16290,22 @@
         <v>159</v>
       </c>
       <c r="J14" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K14" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L14" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M14" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N14" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O14" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P14" s="92"/>
     </row>
@@ -16337,7 +16314,7 @@
         <v>160</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C15" s="76">
         <v>839179272</v>
@@ -16361,22 +16338,22 @@
         <v>168</v>
       </c>
       <c r="J15" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K15" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L15" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M15" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N15" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O15" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P15" s="92"/>
     </row>
@@ -16385,7 +16362,7 @@
         <v>169</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C16" s="76">
         <v>83662916</v>
@@ -16409,22 +16386,22 @@
         <v>177</v>
       </c>
       <c r="J16" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K16" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L16" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M16" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N16" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O16" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P16" s="92"/>
     </row>
@@ -16433,7 +16410,7 @@
         <v>203</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C17" s="76">
         <v>48341838</v>
@@ -16457,22 +16434,22 @@
         <v>211</v>
       </c>
       <c r="J17" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K17" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L17" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M17" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N17" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O17" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P17" s="92"/>
     </row>
@@ -16481,7 +16458,7 @@
         <v>215</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C18" s="76">
         <v>69341972</v>
@@ -16505,22 +16482,22 @@
         <v>194</v>
       </c>
       <c r="J18" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K18" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L18" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M18" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N18" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O18" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P18" s="92"/>
     </row>
@@ -16529,7 +16506,7 @@
         <v>218</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C19" s="76">
         <v>931221258</v>
@@ -16553,22 +16530,22 @@
         <v>225</v>
       </c>
       <c r="J19" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K19" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L19" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M19" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N19" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O19" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P19" s="92"/>
     </row>
@@ -16577,7 +16554,7 @@
         <v>226</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C20" s="76">
         <v>67641597</v>
@@ -16601,22 +16578,22 @@
         <v>235</v>
       </c>
       <c r="J20" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K20" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L20" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M20" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N20" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O20" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P20" s="92"/>
     </row>
@@ -16625,7 +16602,7 @@
         <v>255</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C21" s="76">
         <v>83655498</v>
@@ -16649,22 +16626,22 @@
         <v>264</v>
       </c>
       <c r="J21" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K21" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L21" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M21" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N21" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O21" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P21" s="92"/>
     </row>
@@ -16682,22 +16659,22 @@
       <c r="G22" s="95"/>
       <c r="H22" s="101"/>
       <c r="J22" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K22" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L22" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M22" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N22" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O22" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P22" s="92"/>
     </row>
@@ -16706,7 +16683,7 @@
         <v>272</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C23" s="76">
         <v>72648579</v>
@@ -16730,22 +16707,22 @@
         <v>279</v>
       </c>
       <c r="J23" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K23" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L23" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M23" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N23" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O23" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P23" s="92"/>
     </row>
@@ -16754,7 +16731,7 @@
         <v>280</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C24" s="76">
         <v>835130485</v>
@@ -16778,22 +16755,22 @@
         <v>288</v>
       </c>
       <c r="J24" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K24" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L24" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M24" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N24" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O24" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P24" s="92"/>
     </row>
@@ -16802,7 +16779,7 @@
         <v>298</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C25" s="76">
         <v>7923014</v>
@@ -16826,22 +16803,22 @@
         <v>305</v>
       </c>
       <c r="J25" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K25" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L25" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M25" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N25" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O25" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P25" s="92"/>
     </row>
@@ -16850,7 +16827,7 @@
         <v>314</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C26" s="76">
         <v>41014242</v>
@@ -16874,22 +16851,22 @@
         <v>321</v>
       </c>
       <c r="J26" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K26" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L26" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M26" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N26" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O26" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P26" s="92"/>
     </row>
@@ -16898,7 +16875,7 @@
         <v>322</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C27" s="76">
         <v>54781240</v>
@@ -16922,22 +16899,22 @@
         <v>329</v>
       </c>
       <c r="J27" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K27" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L27" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M27" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N27" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O27" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P27" s="92"/>
     </row>
@@ -16946,7 +16923,7 @@
         <v>330</v>
       </c>
       <c r="B28" s="91" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C28" s="76">
         <v>780820002</v>
@@ -16970,22 +16947,22 @@
         <v>338</v>
       </c>
       <c r="J28" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K28" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L28" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M28" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N28" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O28" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P28" s="92"/>
     </row>
@@ -16994,7 +16971,7 @@
         <v>339</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C29" s="76">
         <v>53385738</v>
@@ -17018,22 +16995,22 @@
         <v>347</v>
       </c>
       <c r="J29" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K29" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L29" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M29" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N29" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O29" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P29" s="92"/>
     </row>
@@ -17042,7 +17019,7 @@
         <v>357</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C30" s="76">
         <v>139627525</v>
@@ -17066,22 +17043,22 @@
         <v>364</v>
       </c>
       <c r="J30" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K30" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L30" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M30" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N30" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O30" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P30" s="92"/>
     </row>
@@ -17090,7 +17067,7 @@
         <v>411</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C31" s="76">
         <v>78502520</v>
@@ -17114,22 +17091,22 @@
         <v>419</v>
       </c>
       <c r="J31" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K31" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L31" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M31" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N31" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O31" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P31" s="92"/>
     </row>
@@ -17138,7 +17115,7 @@
         <v>439</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C32" s="76">
         <v>6908511</v>
@@ -17162,22 +17139,22 @@
         <v>448</v>
       </c>
       <c r="J32" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K32" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L32" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M32" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N32" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O32" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P32" s="92"/>
     </row>
@@ -17186,7 +17163,7 @@
         <v>471</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C33" s="76">
         <v>53387429</v>
@@ -17210,22 +17187,22 @@
         <v>478</v>
       </c>
       <c r="J33" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K33" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L33" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M33" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N33" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O33" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P33" s="92"/>
     </row>
@@ -17234,7 +17211,7 @@
         <v>488</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C34" s="76">
         <v>78883327</v>
@@ -17258,22 +17235,22 @@
         <v>496</v>
       </c>
       <c r="J34" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K34" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L34" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M34" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N34" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O34" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P34" s="92"/>
     </row>
@@ -17282,7 +17259,7 @@
         <v>497</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C35" s="76">
         <v>197138274</v>
@@ -17306,22 +17283,22 @@
         <v>504</v>
       </c>
       <c r="J35" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K35" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L35" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M35" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N35" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O35" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P35" s="92"/>
     </row>
@@ -17330,7 +17307,7 @@
         <v>505</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C36" s="76">
         <v>928859149</v>
@@ -17354,22 +17331,22 @@
         <v>511</v>
       </c>
       <c r="J36" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K36" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L36" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M36" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N36" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O36" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P36" s="92"/>
     </row>
@@ -17378,7 +17355,7 @@
         <v>512</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C37" s="76">
         <v>878901396</v>
@@ -17402,22 +17379,22 @@
         <v>520</v>
       </c>
       <c r="J37" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K37" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L37" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M37" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N37" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O37" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P37" s="92"/>
     </row>
@@ -17426,7 +17403,7 @@
         <v>529</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C38" s="76">
         <v>7936842</v>
@@ -17450,22 +17427,22 @@
         <v>536</v>
       </c>
       <c r="J38" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K38" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L38" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M38" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N38" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O38" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P38" s="92"/>
     </row>
@@ -17474,7 +17451,7 @@
         <v>537</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C39" s="76">
         <v>97779698</v>
@@ -17498,22 +17475,22 @@
         <v>544</v>
       </c>
       <c r="J39" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K39" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L39" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M39" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N39" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O39" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P39" s="92"/>
     </row>
@@ -17522,7 +17499,7 @@
         <v>545</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C40" s="76">
         <v>9232752</v>
@@ -17546,22 +17523,22 @@
         <v>553</v>
       </c>
       <c r="J40" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K40" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L40" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M40" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N40" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O40" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P40" s="92"/>
     </row>
@@ -17570,7 +17547,7 @@
         <v>580</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C41" s="76">
         <v>45224250</v>
@@ -17594,22 +17571,22 @@
         <v>589</v>
       </c>
       <c r="J41" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K41" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L41" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M41" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N41" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O41" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P41" s="92"/>
     </row>
@@ -17618,7 +17595,7 @@
         <v>618</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C42" s="76">
         <v>961530545</v>
@@ -17642,22 +17619,22 @@
         <v>627</v>
       </c>
       <c r="J42" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K42" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L42" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M42" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N42" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O42" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P42" s="92"/>
     </row>
@@ -17666,7 +17643,7 @@
         <v>628</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C43" s="76">
         <v>965519098</v>
@@ -17690,22 +17667,22 @@
         <v>636</v>
       </c>
       <c r="J43" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K43" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L43" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M43" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N43" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O43" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P43" s="92"/>
     </row>
@@ -17714,7 +17691,7 @@
         <v>658</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C44" s="76">
         <v>41024415</v>
@@ -17738,22 +17715,22 @@
         <v>666</v>
       </c>
       <c r="J44" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K44" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L44" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M44" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N44" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O44" s="92" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P44" s="92"/>
     </row>
@@ -18622,7 +18599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -18634,20 +18611,20 @@
       <selection pane="bottomLeft" activeCell="O17" sqref="J17:O43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="41.125" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="70" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="70" customWidth="1"/>
+    <col min="1" max="1" width="41.09765625" customWidth="1"/>
+    <col min="2" max="2" width="19.8984375" style="70" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" customWidth="1"/>
+    <col min="4" max="4" width="15.296875" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="70" customWidth="1"/>
     <col min="6" max="6" width="26" style="70" customWidth="1"/>
-    <col min="7" max="7" width="21.125" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="30.25" customWidth="1"/>
-    <col min="10" max="15" width="9.75" customWidth="1"/>
-    <col min="16" max="31" width="8.625" customWidth="1"/>
-    <col min="32" max="1031" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="21.09765625" customWidth="1"/>
+    <col min="8" max="8" width="12.09765625" customWidth="1"/>
+    <col min="9" max="9" width="30.19921875" customWidth="1"/>
+    <col min="10" max="15" width="9.69921875" customWidth="1"/>
+    <col min="16" max="31" width="8.59765625" customWidth="1"/>
+    <col min="32" max="1031" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="41.25" customHeight="1" thickBot="1">
@@ -18679,22 +18656,22 @@
         <v>678</v>
       </c>
       <c r="J1" s="120" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="K1" s="120" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="L1" s="120" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="M1" s="120" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="N1" s="120" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="O1" s="120" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="P1" s="74" t="s">
         <v>679</v>
@@ -18706,7 +18683,7 @@
         <v>Alion Science and Technology Corporation</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C2" s="76">
         <v>963450866</v>
@@ -18743,7 +18720,7 @@
         <v>American Systems Corporation</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C3" s="76">
         <v>77799799</v>
@@ -18780,7 +18757,7 @@
         <v>Applied Research Associates, Inc., dba ARA</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C4" s="76">
         <v>97967608</v>
@@ -18817,7 +18794,7 @@
         <v>Ball Aerospace &amp; Technologies Corporation</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C5" s="76">
         <v>926451519</v>
@@ -18854,7 +18831,7 @@
         <v>Battelle Memorial Institute</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C6" s="76">
         <v>7901598</v>
@@ -18891,7 +18868,7 @@
         <v>Boeing Aerospace Operations, Inc.</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C7" s="76">
         <v>175304687</v>
@@ -18928,7 +18905,7 @@
         <v>Booz Allen Hamilton, Inc.</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C8" s="76">
         <v>6928857</v>
@@ -18965,7 +18942,7 @@
         <v>CACI, Inc. Federal</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C9" s="76">
         <v>114896066</v>
@@ -19002,7 +18979,7 @@
         <v>Camber Corporation</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C10" s="76">
         <v>609570742</v>
@@ -19039,7 +19016,7 @@
         <v>CGI Federal, Inc.</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C11" s="76">
         <v>145969783</v>
@@ -19076,7 +19053,7 @@
         <v>CSRA LLC</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C12" s="76">
         <v>79735371</v>
@@ -19113,7 +19090,7 @@
         <v>Concurrent Technologies Corporation</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C13" s="76">
         <v>189737810</v>
@@ -19150,7 +19127,7 @@
         <v>Cubic Global Defense, Inc.</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C14" s="76">
         <v>839179272</v>
@@ -19187,7 +19164,7 @@
         <v>DCS Corporation</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C15" s="76">
         <v>83662916</v>
@@ -19224,7 +19201,7 @@
         <v>Dynetics, Inc.</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C16" s="76">
         <v>75458455</v>
@@ -19261,7 +19238,7 @@
         <v>Engility LLC</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C17" s="76">
         <v>48341838</v>
@@ -19285,22 +19262,22 @@
         <v>194</v>
       </c>
       <c r="J17" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K17" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L17" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M17" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N17" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O17" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P17" s="92"/>
     </row>
@@ -19310,7 +19287,7 @@
         <v xml:space="preserve">Engility Corporation </v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C18" s="76">
         <v>69341972</v>
@@ -19334,22 +19311,22 @@
         <v>194</v>
       </c>
       <c r="J18" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K18" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L18" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M18" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N18" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O18" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P18" s="92"/>
     </row>
@@ -19359,7 +19336,7 @@
         <v>General Dynamics Information Technology, Inc.</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C19" s="76">
         <v>67641597</v>
@@ -19383,22 +19360,22 @@
         <v>235</v>
       </c>
       <c r="J19" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K19" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L19" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M19" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N19" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O19" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P19" s="92"/>
     </row>
@@ -19408,7 +19385,7 @@
         <v>Harris Corporation</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C20" s="76">
         <v>21715206</v>
@@ -19432,22 +19409,22 @@
         <v>271</v>
       </c>
       <c r="J20" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K20" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L20" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M20" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N20" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O20" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P20" s="92"/>
     </row>
@@ -19457,7 +19434,7 @@
         <v>ICF Incorporated, LLC</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C21" s="76">
         <v>72648579</v>
@@ -19481,22 +19458,22 @@
         <v>279</v>
       </c>
       <c r="J21" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K21" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L21" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M21" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N21" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O21" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P21" s="92"/>
     </row>
@@ -19506,7 +19483,7 @@
         <v>International Business Machines Corporation dba IBM</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C22" s="76">
         <v>835130485</v>
@@ -19530,22 +19507,22 @@
         <v>288</v>
       </c>
       <c r="J22" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K22" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L22" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M22" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N22" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O22" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P22" s="92"/>
     </row>
@@ -19555,7 +19532,7 @@
         <v>Jacobs Technology, Inc.</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C23" s="76">
         <v>7923014</v>
@@ -19579,22 +19556,22 @@
         <v>305</v>
       </c>
       <c r="J23" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K23" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L23" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M23" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N23" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O23" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P23" s="92"/>
     </row>
@@ -19604,7 +19581,7 @@
         <v>Kbrwyle Technology Solutions, LLC dba KBRWYLE</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C24" s="76">
         <v>41014242</v>
@@ -19628,22 +19605,22 @@
         <v>321</v>
       </c>
       <c r="J24" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K24" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L24" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M24" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N24" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O24" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P24" s="92"/>
     </row>
@@ -19653,7 +19630,7 @@
         <v>Leidos, Inc.</v>
       </c>
       <c r="B25" s="79" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C25" s="76">
         <v>54781240</v>
@@ -19677,22 +19654,22 @@
         <v>329</v>
       </c>
       <c r="J25" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K25" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L25" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M25" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N25" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O25" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P25" s="92"/>
     </row>
@@ -19702,7 +19679,7 @@
         <v>Lockheed Martin Integrated Systems, LLC.</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C26" s="76">
         <v>780820002</v>
@@ -19726,22 +19703,22 @@
         <v>338</v>
       </c>
       <c r="J26" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K26" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L26" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M26" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N26" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O26" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P26" s="92"/>
     </row>
@@ -19751,7 +19728,7 @@
         <v>ManTech Advanced Systems International, Inc.</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C27" s="76">
         <v>139627525</v>
@@ -19775,22 +19752,22 @@
         <v>364</v>
       </c>
       <c r="J27" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K27" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L27" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M27" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N27" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O27" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P27" s="92"/>
     </row>
@@ -19800,7 +19777,7 @@
         <v>Noblis, Inc.</v>
       </c>
       <c r="B28" s="79" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C28" s="76">
         <v>932902364</v>
@@ -19824,22 +19801,22 @@
         <v>410</v>
       </c>
       <c r="J28" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K28" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L28" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M28" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N28" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O28" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P28" s="92"/>
     </row>
@@ -19849,7 +19826,7 @@
         <v>Northrop Grumman Systems Corporation</v>
       </c>
       <c r="B29" s="79" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C29" s="76">
         <v>78502520</v>
@@ -19873,22 +19850,22 @@
         <v>419</v>
       </c>
       <c r="J29" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K29" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L29" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M29" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N29" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O29" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P29" s="92"/>
     </row>
@@ -19898,7 +19875,7 @@
         <v>Parsons Government Services, Inc</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C30" s="76">
         <v>6908511</v>
@@ -19922,22 +19899,22 @@
         <v>448</v>
       </c>
       <c r="J30" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K30" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L30" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M30" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N30" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O30" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P30" s="92"/>
     </row>
@@ -19947,7 +19924,7 @@
         <v>Raytheon Company</v>
       </c>
       <c r="B31" s="79" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C31" s="76">
         <v>53387429</v>
@@ -19971,22 +19948,22 @@
         <v>478</v>
       </c>
       <c r="J31" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K31" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L31" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M31" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N31" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O31" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P31" s="92"/>
     </row>
@@ -19996,7 +19973,7 @@
         <v>Science Applications International Corporation dba SAIC</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C32" s="76">
         <v>78883327</v>
@@ -20020,22 +19997,22 @@
         <v>496</v>
       </c>
       <c r="J32" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K32" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L32" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M32" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N32" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O32" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P32" s="92"/>
     </row>
@@ -20045,7 +20022,7 @@
         <v>Scientific Research Corporation</v>
       </c>
       <c r="B33" s="79" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C33" s="76">
         <v>197138274</v>
@@ -20069,22 +20046,22 @@
         <v>504</v>
       </c>
       <c r="J33" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K33" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L33" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M33" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N33" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O33" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P33" s="92"/>
     </row>
@@ -20094,7 +20071,7 @@
         <v>Serco, Inc.</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C34" s="76">
         <v>928859149</v>
@@ -20118,22 +20095,22 @@
         <v>511</v>
       </c>
       <c r="J34" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K34" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L34" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M34" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N34" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O34" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P34" s="92"/>
     </row>
@@ -20143,7 +20120,7 @@
         <v>SGT, Inc.</v>
       </c>
       <c r="B35" s="79" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C35" s="76">
         <v>878901396</v>
@@ -20167,22 +20144,22 @@
         <v>520</v>
       </c>
       <c r="J35" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K35" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L35" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M35" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N35" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O35" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P35" s="92"/>
     </row>
@@ -20192,7 +20169,7 @@
         <v>Southwest Research Institute</v>
       </c>
       <c r="B36" s="79" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C36" s="76">
         <v>7936842</v>
@@ -20216,22 +20193,22 @@
         <v>536</v>
       </c>
       <c r="J36" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K36" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L36" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M36" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N36" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O36" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P36" s="92"/>
     </row>
@@ -20241,7 +20218,7 @@
         <v>SRA International, Inc. dba SRA</v>
       </c>
       <c r="B37" s="79" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C37" s="76">
         <v>97779698</v>
@@ -20265,22 +20242,22 @@
         <v>544</v>
       </c>
       <c r="J37" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K37" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L37" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M37" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N37" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O37" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P37" s="92"/>
     </row>
@@ -20290,7 +20267,7 @@
         <v>SRI International</v>
       </c>
       <c r="B38" s="79" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C38" s="76">
         <v>9232752</v>
@@ -20314,22 +20291,22 @@
         <v>553</v>
       </c>
       <c r="J38" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K38" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L38" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M38" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N38" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O38" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P38" s="92"/>
     </row>
@@ -20339,7 +20316,7 @@
         <v>Tetra Tech, Inc.</v>
       </c>
       <c r="B39" s="79" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C39" s="76">
         <v>45224250</v>
@@ -20363,22 +20340,22 @@
         <v>589</v>
       </c>
       <c r="J39" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K39" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L39" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M39" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N39" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O39" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P39" s="92"/>
     </row>
@@ -20388,7 +20365,7 @@
         <v>Unisys Corporation</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C40" s="76">
         <v>150780674</v>
@@ -20412,22 +20389,22 @@
         <v>617</v>
       </c>
       <c r="J40" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K40" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L40" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M40" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N40" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O40" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P40" s="92"/>
     </row>
@@ -20437,7 +20414,7 @@
         <v>URS Federal Services, Inc.</v>
       </c>
       <c r="B41" s="79" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C41" s="76">
         <v>961530545</v>
@@ -20461,22 +20438,22 @@
         <v>627</v>
       </c>
       <c r="J41" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K41" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L41" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M41" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N41" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O41" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P41" s="92"/>
     </row>
@@ -20486,7 +20463,7 @@
         <v>Vencore, Inc.</v>
       </c>
       <c r="B42" s="79" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C42" s="76">
         <v>965519098</v>
@@ -20510,22 +20487,22 @@
         <v>636</v>
       </c>
       <c r="J42" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K42" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L42" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M42" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N42" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O42" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P42" s="92"/>
     </row>
@@ -20535,7 +20512,7 @@
         <v>Wyle Laboratories, Inc.</v>
       </c>
       <c r="B43" s="79" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C43" s="76">
         <v>41024415</v>
@@ -20559,22 +20536,22 @@
         <v>666</v>
       </c>
       <c r="J43" s="70" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K43" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L43" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M43" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N43" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O43" s="122" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P43" s="92"/>
     </row>
@@ -21407,7 +21384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -21419,19 +21396,19 @@
       <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="40.75" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="70" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="6" width="25.75" style="70" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="28.625" customWidth="1"/>
-    <col min="10" max="15" width="10.75" customWidth="1"/>
-    <col min="16" max="32" width="8.625" customWidth="1"/>
-    <col min="33" max="1031" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="40.69921875" customWidth="1"/>
+    <col min="2" max="2" width="19.8984375" style="70" customWidth="1"/>
+    <col min="3" max="3" width="7.8984375" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" customWidth="1"/>
+    <col min="5" max="6" width="25.69921875" style="70" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
+    <col min="8" max="8" width="12.09765625" customWidth="1"/>
+    <col min="9" max="9" width="28.59765625" customWidth="1"/>
+    <col min="10" max="15" width="10.796875" customWidth="1"/>
+    <col min="16" max="32" width="8.59765625" customWidth="1"/>
+    <col min="33" max="1031" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="45" customHeight="1">
@@ -21463,22 +21440,22 @@
         <v>678</v>
       </c>
       <c r="J1" s="120" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="K1" s="120" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="L1" s="120" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="M1" s="120" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="N1" s="120" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="O1" s="120" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="P1" s="74" t="s">
         <v>679</v>
@@ -21490,7 +21467,7 @@
         <v>Applied Research Associates, Inc., dba ARA</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C2" s="76">
         <v>97967608</v>
@@ -21514,22 +21491,22 @@
         <v>66</v>
       </c>
       <c r="J2" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K2" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L2" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M2" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N2" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O2" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P2" s="92"/>
       <c r="Q2" s="112"/>
@@ -21555,7 +21532,7 @@
         <v>Ball Aerospace &amp; Technologies Corporation</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C3" s="76">
         <v>926451519</v>
@@ -21579,22 +21556,22 @@
         <v>75</v>
       </c>
       <c r="J3" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K3" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L3" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M3" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N3" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O3" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P3" s="92"/>
       <c r="Q3" s="112"/>
@@ -21620,7 +21597,7 @@
         <v>Battelle Memorial Institute</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C4" s="76">
         <v>7901598</v>
@@ -21644,22 +21621,22 @@
         <v>84</v>
       </c>
       <c r="J4" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K4" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L4" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M4" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N4" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O4" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P4" s="92"/>
       <c r="Q4" s="112"/>
@@ -21685,7 +21662,7 @@
         <v>Boeing Aerospace Operations, Inc.</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C5" s="76">
         <v>175304687</v>
@@ -21709,22 +21686,22 @@
         <v>93</v>
       </c>
       <c r="J5" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K5" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L5" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M5" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N5" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O5" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P5" s="92"/>
       <c r="Q5" s="112"/>
@@ -21750,7 +21727,7 @@
         <v>Booz Allen Hamilton, Inc.</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C6" s="76">
         <v>6928857</v>
@@ -21774,22 +21751,22 @@
         <v>101</v>
       </c>
       <c r="J6" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K6" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L6" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M6" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N6" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O6" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P6" s="92"/>
       <c r="Q6" s="112"/>
@@ -21815,7 +21792,7 @@
         <v>CACI NSS, Inc.</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C7" s="76">
         <v>136127482</v>
@@ -21839,22 +21816,22 @@
         <v>109</v>
       </c>
       <c r="J7" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K7" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L7" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M7" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N7" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O7" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P7" s="92"/>
       <c r="Q7" s="112"/>
@@ -21880,7 +21857,7 @@
         <v>CGI Federal, Inc.</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C8" s="76">
         <v>145969783</v>
@@ -21904,22 +21881,22 @@
         <v>132</v>
       </c>
       <c r="J8" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K8" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L8" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M8" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N8" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O8" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P8" s="92"/>
       <c r="Q8" s="112"/>
@@ -21945,7 +21922,7 @@
         <v>Concurrent Technologies Corporation</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C9" s="76">
         <v>189737810</v>
@@ -21969,22 +21946,22 @@
         <v>159</v>
       </c>
       <c r="J9" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K9" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L9" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M9" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N9" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O9" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P9" s="92"/>
       <c r="Q9" s="112"/>
@@ -22010,7 +21987,7 @@
         <v xml:space="preserve">Engility Corporation </v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C10" s="113">
         <v>69341972</v>
@@ -22034,22 +22011,22 @@
         <v>194</v>
       </c>
       <c r="J10" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K10" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L10" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M10" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N10" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O10" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P10" s="92"/>
       <c r="Q10" s="112"/>
@@ -22075,7 +22052,7 @@
         <v>Jacobs Technology, Inc.</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C11" s="76">
         <v>7923014</v>
@@ -22099,22 +22076,22 @@
         <v>305</v>
       </c>
       <c r="J11" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K11" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L11" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M11" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N11" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O11" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P11" s="92"/>
       <c r="Q11" s="112"/>
@@ -22140,7 +22117,7 @@
         <v>Kbrwyle Technology Solutions, LLC dba KBRWYLE</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C12" s="76">
         <v>41014242</v>
@@ -22164,22 +22141,22 @@
         <v>321</v>
       </c>
       <c r="J12" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K12" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L12" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M12" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N12" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O12" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P12" s="92"/>
       <c r="Q12" s="112"/>
@@ -22205,7 +22182,7 @@
         <v>Leidos, Inc.</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C13" s="76">
         <v>54781240</v>
@@ -22229,22 +22206,22 @@
         <v>329</v>
       </c>
       <c r="J13" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K13" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L13" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M13" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N13" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O13" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P13" s="92"/>
       <c r="Q13" s="112"/>
@@ -22270,7 +22247,7 @@
         <v>Lockheed Martin Integrated Systems, LLC.</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C14" s="76">
         <v>780820002</v>
@@ -22294,22 +22271,22 @@
         <v>338</v>
       </c>
       <c r="J14" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K14" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L14" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M14" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N14" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O14" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P14" s="92"/>
       <c r="Q14" s="112"/>
@@ -22335,7 +22312,7 @@
         <v>Northrop Grumman Systems Corporation</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C15" s="76">
         <v>78502520</v>
@@ -22359,22 +22336,22 @@
         <v>419</v>
       </c>
       <c r="J15" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K15" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L15" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M15" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N15" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O15" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P15" s="92"/>
       <c r="Q15" s="112"/>
@@ -22400,7 +22377,7 @@
         <v>Raytheon Company</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C16" s="76">
         <v>53387429</v>
@@ -22424,22 +22401,22 @@
         <v>478</v>
       </c>
       <c r="J16" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K16" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L16" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M16" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N16" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O16" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P16" s="92"/>
       <c r="Q16" s="112"/>
@@ -22465,7 +22442,7 @@
         <v>Science Applications International Corporation dba SAIC</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C17" s="76">
         <v>78883327</v>
@@ -22489,22 +22466,22 @@
         <v>496</v>
       </c>
       <c r="J17" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K17" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L17" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M17" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N17" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O17" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P17" s="92"/>
       <c r="Q17" s="112"/>
@@ -22530,7 +22507,7 @@
         <v>Scientific Research Corporation</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C18" s="76">
         <v>197138274</v>
@@ -22554,22 +22531,22 @@
         <v>504</v>
       </c>
       <c r="J18" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K18" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L18" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M18" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N18" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O18" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P18" s="92"/>
       <c r="Q18" s="112"/>
@@ -22595,7 +22572,7 @@
         <v>Serco, Inc.</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C19" s="76">
         <v>928859149</v>
@@ -22619,22 +22596,22 @@
         <v>511</v>
       </c>
       <c r="J19" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K19" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L19" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M19" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N19" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O19" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P19" s="92"/>
       <c r="Q19" s="112"/>
@@ -22660,7 +22637,7 @@
         <v>SGT, Inc.</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C20" s="76">
         <v>878901396</v>
@@ -22684,22 +22661,22 @@
         <v>520</v>
       </c>
       <c r="J20" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K20" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L20" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M20" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N20" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O20" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P20" s="92"/>
       <c r="Q20" s="112"/>
@@ -22725,7 +22702,7 @@
         <v>Vencore Services and Solutions, Inc.</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C21" s="76">
         <v>827599759</v>
@@ -22749,22 +22726,22 @@
         <v>636</v>
       </c>
       <c r="J21" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K21" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L21" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M21" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N21" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O21" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P21" s="92"/>
       <c r="Q21" s="112"/>
@@ -22790,7 +22767,7 @@
         <v>Wyle Laboratories, Inc.</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C22" s="76">
         <v>41024415</v>
@@ -22814,22 +22791,22 @@
         <v>666</v>
       </c>
       <c r="J22" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K22" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L22" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M22" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N22" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O22" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P22" s="92"/>
       <c r="Q22" s="112"/>
@@ -23792,7 +23769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -23804,16 +23781,16 @@
       <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="40.75" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="70" customWidth="1"/>
-    <col min="3" max="3" width="8.25" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="6" width="25.75" style="70" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="32" width="8.625" customWidth="1"/>
-    <col min="33" max="1031" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="40.69921875" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="8.19921875" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" customWidth="1"/>
+    <col min="5" max="6" width="25.69921875" style="70" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
+    <col min="8" max="32" width="8.59765625" customWidth="1"/>
+    <col min="33" max="1031" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="47.25" customHeight="1">
@@ -23845,22 +23822,22 @@
         <v>678</v>
       </c>
       <c r="J1" s="120" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="K1" s="120" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="L1" s="120" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="M1" s="120" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="N1" s="120" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="O1" s="120" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="P1" s="74" t="s">
         <v>679</v>
@@ -23872,7 +23849,7 @@
         <v>Applied Research Associates, Inc., dba ARA</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C2" s="76">
         <v>97967608</v>
@@ -23896,22 +23873,22 @@
         <v>66</v>
       </c>
       <c r="J2" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K2" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L2" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M2" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N2" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O2" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P2" s="92"/>
     </row>
@@ -23921,7 +23898,7 @@
         <v>Battelle Memorial Institute</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C3" s="76">
         <v>7901598</v>
@@ -23945,22 +23922,22 @@
         <v>84</v>
       </c>
       <c r="J3" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K3" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L3" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M3" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N3" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O3" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P3" s="92"/>
     </row>
@@ -23970,7 +23947,7 @@
         <v>Boeing Aerospace Operations, Inc.</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C4" s="76">
         <v>175304687</v>
@@ -23994,22 +23971,22 @@
         <v>93</v>
       </c>
       <c r="J4" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K4" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L4" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M4" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N4" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O4" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P4" s="92"/>
     </row>
@@ -24019,7 +23996,7 @@
         <v>Booz Allen Hamilton, Inc.</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C5" s="76">
         <v>6928857</v>
@@ -24043,22 +24020,22 @@
         <v>101</v>
       </c>
       <c r="J5" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K5" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L5" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M5" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N5" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O5" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P5" s="92"/>
     </row>
@@ -24068,7 +24045,7 @@
         <v>CACI NSS, Inc.</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C6" s="76">
         <v>136127482</v>
@@ -24092,22 +24069,22 @@
         <v>109</v>
       </c>
       <c r="J6" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K6" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L6" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M6" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N6" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O6" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P6" s="92"/>
     </row>
@@ -24117,7 +24094,7 @@
         <v>CGI Federal, Inc.</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C7" s="76">
         <v>145969783</v>
@@ -24141,22 +24118,22 @@
         <v>132</v>
       </c>
       <c r="J7" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K7" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L7" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M7" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N7" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O7" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P7" s="92"/>
     </row>
@@ -24166,7 +24143,7 @@
         <v>CSRA LLC</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C8" s="76">
         <v>79735371</v>
@@ -24190,22 +24167,22 @@
         <v>150</v>
       </c>
       <c r="J8" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K8" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L8" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M8" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N8" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O8" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P8" s="92"/>
     </row>
@@ -24215,7 +24192,7 @@
         <v xml:space="preserve">Engility Corporation </v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C9" s="113">
         <v>69341972</v>
@@ -24239,22 +24216,22 @@
         <v>194</v>
       </c>
       <c r="J9" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K9" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L9" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M9" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N9" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O9" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P9" s="92"/>
     </row>
@@ -24264,7 +24241,7 @@
         <v>Jacobs Technology, Inc.</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C10" s="76">
         <v>7923014</v>
@@ -24288,22 +24265,22 @@
         <v>305</v>
       </c>
       <c r="J10" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K10" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L10" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M10" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N10" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O10" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P10" s="92"/>
     </row>
@@ -24313,7 +24290,7 @@
         <v>Kbrwyle Technology Solutions, LLC dba KBRWYLE</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C11" s="76">
         <v>41014242</v>
@@ -24337,22 +24314,22 @@
         <v>321</v>
       </c>
       <c r="J11" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K11" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L11" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M11" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N11" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O11" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P11" s="92"/>
     </row>
@@ -24362,7 +24339,7 @@
         <v>Leidos, Inc.</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C12" s="76">
         <v>54781240</v>
@@ -24386,22 +24363,22 @@
         <v>329</v>
       </c>
       <c r="J12" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K12" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L12" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M12" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N12" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O12" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P12" s="92"/>
     </row>
@@ -24411,7 +24388,7 @@
         <v>Lockheed Martin Integrated Systems, LLC.</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C13" s="76">
         <v>780820002</v>
@@ -24435,22 +24412,22 @@
         <v>338</v>
       </c>
       <c r="J13" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K13" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L13" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M13" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N13" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O13" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P13" s="92"/>
     </row>
@@ -24460,7 +24437,7 @@
         <v>ManTech Advanced Systems International, Inc.</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C14" s="76">
         <v>139627525</v>
@@ -24484,22 +24461,22 @@
         <v>364</v>
       </c>
       <c r="J14" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K14" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L14" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M14" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N14" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O14" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P14" s="92"/>
     </row>
@@ -24509,7 +24486,7 @@
         <v>Northrop Grumman Systems Corporation</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C15" s="76">
         <v>78502520</v>
@@ -24533,22 +24510,22 @@
         <v>419</v>
       </c>
       <c r="J15" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K15" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L15" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M15" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N15" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O15" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P15" s="92"/>
     </row>
@@ -24558,7 +24535,7 @@
         <v>Parsons Government Services, Inc</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C16" s="76">
         <v>6908511</v>
@@ -24582,22 +24559,22 @@
         <v>448</v>
       </c>
       <c r="J16" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K16" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L16" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M16" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N16" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O16" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P16" s="92"/>
     </row>
@@ -24607,7 +24584,7 @@
         <v>Raytheon Company</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C17" s="76">
         <v>53387429</v>
@@ -24631,22 +24608,22 @@
         <v>478</v>
       </c>
       <c r="J17" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K17" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L17" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M17" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N17" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O17" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P17" s="92"/>
     </row>
@@ -24656,7 +24633,7 @@
         <v>Science Applications International Corporation dba SAIC</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C18" s="76">
         <v>78883327</v>
@@ -24680,22 +24657,22 @@
         <v>496</v>
       </c>
       <c r="J18" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K18" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L18" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M18" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N18" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O18" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P18" s="92"/>
     </row>
@@ -24705,7 +24682,7 @@
         <v>Scientific Research Corporation</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C19" s="76">
         <v>197138274</v>
@@ -24729,22 +24706,22 @@
         <v>504</v>
       </c>
       <c r="J19" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K19" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L19" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M19" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N19" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O19" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P19" s="92"/>
     </row>
@@ -24754,7 +24731,7 @@
         <v>SGT, Inc.</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C20" s="76">
         <v>878901396</v>
@@ -24778,22 +24755,22 @@
         <v>520</v>
       </c>
       <c r="J20" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K20" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L20" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M20" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N20" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O20" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P20" s="92"/>
     </row>
@@ -24803,7 +24780,7 @@
         <v>Southwest Research Institute</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C21" s="76">
         <v>7936842</v>
@@ -24827,22 +24804,22 @@
         <v>536</v>
       </c>
       <c r="J21" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K21" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L21" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M21" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N21" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O21" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P21" s="92"/>
     </row>
@@ -24852,7 +24829,7 @@
         <v>Vencore, Inc.</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C22" s="76">
         <v>965519098</v>
@@ -24876,22 +24853,22 @@
         <v>636</v>
       </c>
       <c r="J22" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K22" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L22" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M22" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N22" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O22" s="123" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P22" s="92"/>
     </row>
@@ -25784,31 +25761,31 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:AF924"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="O13" sqref="J13:O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="40.75" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="70" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="6" width="25.75" style="70" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="35.75" customWidth="1"/>
-    <col min="10" max="15" width="10.125" customWidth="1"/>
-    <col min="16" max="32" width="8.625" customWidth="1"/>
-    <col min="33" max="1031" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="40.69921875" customWidth="1"/>
+    <col min="2" max="2" width="20.296875" style="70" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" customWidth="1"/>
+    <col min="5" max="6" width="25.69921875" style="70" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" customWidth="1"/>
+    <col min="9" max="9" width="35.796875" customWidth="1"/>
+    <col min="10" max="15" width="10.09765625" customWidth="1"/>
+    <col min="16" max="32" width="8.59765625" customWidth="1"/>
+    <col min="33" max="1031" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="70" customFormat="1" ht="47.25" customHeight="1">
@@ -25840,22 +25817,22 @@
         <v>678</v>
       </c>
       <c r="J1" s="120" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="K1" s="120" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="L1" s="120" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="M1" s="120" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="N1" s="120" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="O1" s="120" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="P1" s="74" t="s">
         <v>679</v>
@@ -25867,7 +25844,7 @@
         <v>Applied Research Associates, Inc., dba ARA</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C2" s="76">
         <v>97967608</v>
@@ -25920,7 +25897,7 @@
         <v>Ball Aerospace &amp; Technologies Corporation</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C3" s="76">
         <v>926451519</v>
@@ -25973,7 +25950,7 @@
         <v>Battelle Memorial Institute</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C4" s="76">
         <v>7901598</v>
@@ -26026,7 +26003,7 @@
         <v>Boeing Aerospace Operations, Inc.</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C5" s="76">
         <v>175304687</v>
@@ -26079,7 +26056,7 @@
         <v>Booz Allen Hamilton, Inc.</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C6" s="76">
         <v>6928857</v>
@@ -26132,7 +26109,7 @@
         <v>CACI NSS, Inc.</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C7" s="76">
         <v>136127482</v>
@@ -26185,7 +26162,7 @@
         <v>COLSA Corporation</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C8" s="76">
         <v>102067378</v>
@@ -26238,7 +26215,7 @@
         <v>DCS Corporation</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C9" s="76">
         <v>83662916</v>
@@ -26291,7 +26268,7 @@
         <v>Dynamics Research Corporation</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C10" s="76">
         <v>1014182</v>
@@ -26344,7 +26321,7 @@
         <v>Dynetics, Inc.</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C11" s="76">
         <v>75458455</v>
@@ -26397,7 +26374,7 @@
         <v xml:space="preserve">Engility Corporation </v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C12" s="115">
         <v>69341972</v>
@@ -26450,7 +26427,7 @@
         <v>General Dynamics Information Technology, Inc.</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C13" s="116">
         <v>67641597</v>
@@ -26474,22 +26451,22 @@
         <v>235</v>
       </c>
       <c r="J13" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K13" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L13" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M13" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N13" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O13" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P13" s="92"/>
       <c r="Q13" s="112"/>
@@ -26515,7 +26492,7 @@
         <v>Georgia Tech Applied Research Corporation</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C14" s="76">
         <v>364124651</v>
@@ -26539,22 +26516,22 @@
         <v>245</v>
       </c>
       <c r="J14" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K14" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L14" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M14" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N14" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O14" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P14" s="92"/>
       <c r="Q14" s="112"/>
@@ -26580,7 +26557,7 @@
         <v>Intuitive Research and Technology Corporation</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C15" s="76">
         <v>34964945</v>
@@ -26604,22 +26581,22 @@
         <v>297</v>
       </c>
       <c r="J15" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K15" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L15" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M15" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N15" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O15" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P15" s="92"/>
       <c r="Q15" s="112"/>
@@ -26645,7 +26622,7 @@
         <v>Jacobs Technology, Inc.</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C16" s="76">
         <v>7923014</v>
@@ -26669,22 +26646,22 @@
         <v>305</v>
       </c>
       <c r="J16" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K16" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L16" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M16" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N16" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O16" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P16" s="92"/>
       <c r="Q16" s="112"/>
@@ -26710,7 +26687,7 @@
         <v>Kbrwyle Technology Solutions, LLC dba KBRWYLE</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C17" s="76">
         <v>41014242</v>
@@ -26734,22 +26711,22 @@
         <v>321</v>
       </c>
       <c r="J17" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K17" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L17" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M17" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N17" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O17" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P17" s="92"/>
       <c r="Q17" s="112"/>
@@ -26775,7 +26752,7 @@
         <v>Leidos, Inc.</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C18" s="76">
         <v>54781240</v>
@@ -26799,22 +26776,22 @@
         <v>329</v>
       </c>
       <c r="J18" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K18" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L18" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M18" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N18" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O18" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P18" s="92"/>
       <c r="Q18" s="112"/>
@@ -26840,7 +26817,7 @@
         <v>Lockheed Martin Integrated Systems, LLC.</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C19" s="76">
         <v>780820002</v>
@@ -26864,22 +26841,22 @@
         <v>338</v>
       </c>
       <c r="J19" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K19" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L19" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M19" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N19" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O19" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P19" s="92"/>
       <c r="Q19" s="112"/>
@@ -26905,7 +26882,7 @@
         <v>Logistics Management Institute (LMI)</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C20" s="76">
         <v>53385738</v>
@@ -26929,22 +26906,22 @@
         <v>347</v>
       </c>
       <c r="J20" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K20" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L20" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M20" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N20" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O20" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P20" s="92"/>
       <c r="Q20" s="112"/>
@@ -26970,7 +26947,7 @@
         <v>MacAulay-Brown, Inc</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C21" s="76">
         <v>96500483</v>
@@ -26994,22 +26971,22 @@
         <v>356</v>
       </c>
       <c r="J21" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K21" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L21" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M21" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N21" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O21" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P21" s="92"/>
       <c r="Q21" s="112"/>
@@ -27035,7 +27012,7 @@
         <v>MCR Federal, LLC</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C22" s="76">
         <v>28509656</v>
@@ -27059,22 +27036,22 @@
         <v>373</v>
       </c>
       <c r="J22" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K22" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L22" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M22" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N22" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O22" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P22" s="92"/>
       <c r="Q22" s="112"/>
@@ -27100,7 +27077,7 @@
         <v>MEI Technologies, Inc.</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C23" s="76">
         <v>859145658</v>
@@ -27124,22 +27101,22 @@
         <v>382</v>
       </c>
       <c r="J23" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K23" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L23" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M23" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N23" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O23" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P23" s="92"/>
       <c r="Q23" s="112"/>
@@ -27165,7 +27142,7 @@
         <v>Northrop Grumman Systems Corporation</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C24" s="76">
         <v>78502520</v>
@@ -27189,22 +27166,22 @@
         <v>419</v>
       </c>
       <c r="J24" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K24" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L24" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M24" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N24" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O24" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P24" s="92"/>
       <c r="Q24" s="112"/>
@@ -27230,7 +27207,7 @@
         <v>Oasis Systems, LLC</v>
       </c>
       <c r="B25" s="79" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C25" s="76">
         <v>176018810</v>
@@ -27254,22 +27231,22 @@
         <v>428</v>
       </c>
       <c r="J25" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K25" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L25" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M25" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N25" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O25" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P25" s="92"/>
       <c r="Q25" s="112"/>
@@ -27295,7 +27272,7 @@
         <v>Quantech Services, Inc.</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C26" s="76">
         <v>57644887</v>
@@ -27304,7 +27281,7 @@
         <v>458</v>
       </c>
       <c r="E26" s="81" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F26" s="81" t="s">
         <v>462</v>
@@ -27313,28 +27290,28 @@
         <v>459</v>
       </c>
       <c r="H26" s="112" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="I26" s="112" t="s">
         <v>462</v>
       </c>
       <c r="J26" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K26" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L26" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M26" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N26" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O26" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P26" s="92"/>
       <c r="Q26" s="112"/>
@@ -27360,7 +27337,7 @@
         <v>Radiance Technologies, Inc.</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C27" s="76">
         <v>31994218</v>
@@ -27384,22 +27361,22 @@
         <v>470</v>
       </c>
       <c r="J27" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K27" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L27" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M27" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N27" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O27" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P27" s="92"/>
       <c r="Q27" s="112"/>
@@ -27425,7 +27402,7 @@
         <v>Raytheon Company</v>
       </c>
       <c r="B28" s="79" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C28" s="76">
         <v>53387429</v>
@@ -27449,22 +27426,22 @@
         <v>478</v>
       </c>
       <c r="J28" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K28" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L28" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M28" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N28" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O28" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P28" s="92"/>
       <c r="Q28" s="112"/>
@@ -27490,7 +27467,7 @@
         <v>Science Applications International Corporation dba SAIC</v>
       </c>
       <c r="B29" s="79" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C29" s="76">
         <v>78883327</v>
@@ -27514,22 +27491,22 @@
         <v>496</v>
       </c>
       <c r="J29" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K29" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L29" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M29" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N29" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O29" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P29" s="92"/>
       <c r="Q29" s="112"/>
@@ -27555,7 +27532,7 @@
         <v>Scientific Research Corporation</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C30" s="76">
         <v>197138274</v>
@@ -27579,22 +27556,22 @@
         <v>504</v>
       </c>
       <c r="J30" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K30" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L30" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M30" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N30" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O30" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P30" s="92"/>
       <c r="Q30" s="112"/>
@@ -27620,7 +27597,7 @@
         <v>Serco, Inc.</v>
       </c>
       <c r="B31" s="79" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C31" s="76">
         <v>928859149</v>
@@ -27644,22 +27621,22 @@
         <v>511</v>
       </c>
       <c r="J31" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K31" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L31" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M31" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N31" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O31" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P31" s="92"/>
       <c r="Q31" s="112"/>
@@ -27685,7 +27662,7 @@
         <v>SGT, Inc.</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C32" s="76">
         <v>878901396</v>
@@ -27709,22 +27686,22 @@
         <v>520</v>
       </c>
       <c r="J32" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K32" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L32" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M32" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N32" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O32" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P32" s="92"/>
       <c r="Q32" s="112"/>
@@ -27750,7 +27727,7 @@
         <v>Sigmatech, Inc.</v>
       </c>
       <c r="B33" s="79" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C33" s="76">
         <v>193460839</v>
@@ -27774,22 +27751,22 @@
         <v>528</v>
       </c>
       <c r="J33" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K33" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L33" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M33" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N33" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O33" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P33" s="92"/>
       <c r="Q33" s="112"/>
@@ -27815,7 +27792,7 @@
         <v>Sumaria Systems, Inc.</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C34" s="76">
         <v>146389622</v>
@@ -27839,22 +27816,22 @@
         <v>562</v>
       </c>
       <c r="J34" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K34" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L34" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M34" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N34" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O34" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P34" s="92"/>
       <c r="Q34" s="112"/>
@@ -27880,7 +27857,7 @@
         <v>Torch Technologies, Inc.</v>
       </c>
       <c r="B35" s="79" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C35" s="76">
         <v>122515708</v>
@@ -27904,22 +27881,22 @@
         <v>609</v>
       </c>
       <c r="J35" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K35" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L35" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M35" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N35" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O35" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P35" s="92"/>
       <c r="Q35" s="112"/>
@@ -27945,7 +27922,7 @@
         <v>URS Federal Services, Inc.</v>
       </c>
       <c r="B36" s="79" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C36" s="76">
         <v>961530545</v>
@@ -27969,22 +27946,22 @@
         <v>627</v>
       </c>
       <c r="J36" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K36" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L36" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M36" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N36" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O36" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P36" s="92"/>
       <c r="Q36" s="112"/>
@@ -28010,7 +27987,7 @@
         <v>Vencore Services and Solutions, Inc.</v>
       </c>
       <c r="B37" s="79" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C37" s="76">
         <v>827599759</v>
@@ -28034,22 +28011,22 @@
         <v>636</v>
       </c>
       <c r="J37" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K37" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L37" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M37" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N37" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O37" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P37" s="92"/>
       <c r="Q37" s="112"/>
@@ -28075,7 +28052,7 @@
         <v>Whitney, Bradley &amp; Brown, Inc. dba WBB</v>
       </c>
       <c r="B38" s="79" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C38" s="76">
         <v>131873457</v>
@@ -28099,22 +28076,22 @@
         <v>657</v>
       </c>
       <c r="J38" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K38" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L38" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M38" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N38" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O38" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P38" s="92"/>
       <c r="Q38" s="112"/>
@@ -28140,7 +28117,7 @@
         <v>Wyle Laboratories, Inc.</v>
       </c>
       <c r="B39" s="79" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C39" s="76">
         <v>41024415</v>
@@ -28164,22 +28141,22 @@
         <v>666</v>
       </c>
       <c r="J39" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K39" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L39" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M39" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N39" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="O39" s="112" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="P39" s="92"/>
       <c r="Q39" s="112"/>
@@ -29090,14 +29067,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="46.5" customWidth="1"/>
     <col min="2" max="1025" width="8.5" customWidth="1"/>
